--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_7_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_7_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3863045.409801478</v>
+        <v>3863278.050874815</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53890.85515285245</v>
+        <v>53890.85515285155</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.21015448122991</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -706,25 +706,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>27.77528313300969</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>88.61775520402705</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>240.6899316306499</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C5" t="n">
-        <v>48.83589518354175</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>128.4778061762885</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>78.68895450699577</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -995,7 +995,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>105.6245995301945</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1180,13 +1180,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>84.97365353379637</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>236.634544917884</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>322.0772286298367</v>
       </c>
       <c r="H11" t="n">
-        <v>180.688354491724</v>
+        <v>225.8230740502262</v>
       </c>
       <c r="I11" t="n">
         <v>34.24693463981494</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.63697916278539</v>
+        <v>22.50225960428294</v>
       </c>
       <c r="T11" t="n">
         <v>122.4049485207083</v>
@@ -1548,7 +1548,7 @@
         <v>62.3968510650672</v>
       </c>
       <c r="I13" t="n">
-        <v>34.61884066282542</v>
+        <v>34.61884066282543</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.69774406443877</v>
+        <v>41.69774406443742</v>
       </c>
       <c r="S13" t="n">
         <v>115.7226573929197</v>
@@ -1584,7 +1584,7 @@
         <v>132.6940949874571</v>
       </c>
       <c r="U13" t="n">
-        <v>195.2497706021192</v>
+        <v>195.2497706021196</v>
       </c>
       <c r="V13" t="n">
         <v>161.1224652033334</v>
@@ -1621,7 +1621,7 @@
         <v>315.8608676212168</v>
       </c>
       <c r="G14" t="n">
-        <v>322.0772286298367</v>
+        <v>276.942509071334</v>
       </c>
       <c r="H14" t="n">
         <v>225.8230740502262</v>
@@ -1663,7 +1663,7 @@
         <v>122.4049485207083</v>
       </c>
       <c r="U14" t="n">
-        <v>115.0189287676549</v>
+        <v>160.1536483261576</v>
       </c>
       <c r="V14" t="n">
         <v>236.7370803496403</v>
@@ -1782,10 +1782,10 @@
         <v>75.98432295022739</v>
       </c>
       <c r="H16" t="n">
-        <v>62.3968510650672</v>
+        <v>62.39685106506721</v>
       </c>
       <c r="I16" t="n">
-        <v>34.61884066282543</v>
+        <v>34.61884066282542</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.69774406443834</v>
+        <v>41.69774406443833</v>
       </c>
       <c r="S16" t="n">
-        <v>115.7226573929195</v>
+        <v>115.7226573929197</v>
       </c>
       <c r="T16" t="n">
         <v>132.6940949874571</v>
       </c>
       <c r="U16" t="n">
-        <v>195.2497706021194</v>
+        <v>195.2497706021197</v>
       </c>
       <c r="V16" t="n">
         <v>161.1224652033334</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>288.7096822390859</v>
+        <v>288.7096822390858</v>
       </c>
       <c r="C17" t="n">
         <v>271.2487323466128</v>
@@ -1852,19 +1852,19 @@
         <v>260.6588821962882</v>
       </c>
       <c r="E17" t="n">
-        <v>287.9062106478671</v>
+        <v>287.906210647867</v>
       </c>
       <c r="F17" t="n">
         <v>312.8518863173167</v>
       </c>
       <c r="G17" t="n">
-        <v>319.0682473259366</v>
+        <v>319.0682473259365</v>
       </c>
       <c r="H17" t="n">
-        <v>222.8140927463261</v>
+        <v>222.814092746326</v>
       </c>
       <c r="I17" t="n">
-        <v>31.23795333591481</v>
+        <v>31.23795333591497</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>64.62799785888544</v>
+        <v>64.62799785888524</v>
       </c>
       <c r="T17" t="n">
         <v>119.3959672168082</v>
       </c>
       <c r="U17" t="n">
-        <v>157.1446670222565</v>
+        <v>157.1446670222574</v>
       </c>
       <c r="V17" t="n">
-        <v>233.7280990457402</v>
+        <v>233.7280990457401</v>
       </c>
       <c r="W17" t="n">
-        <v>255.2168092930183</v>
+        <v>255.2168092930182</v>
       </c>
       <c r="X17" t="n">
         <v>275.7069412540743</v>
@@ -1943,7 +1943,7 @@
         <v>100.8137164007008</v>
       </c>
       <c r="I18" t="n">
-        <v>48.67884742407819</v>
+        <v>48.67884742407817</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>26.73095892851813</v>
+        <v>26.73095892851812</v>
       </c>
       <c r="S18" t="n">
         <v>149.7163148892172</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.80782075754254</v>
+        <v>85.80782075754253</v>
       </c>
       <c r="C19" t="n">
-        <v>73.22266167423308</v>
+        <v>73.22266167423307</v>
       </c>
       <c r="D19" t="n">
-        <v>54.5913135938176</v>
+        <v>54.59131359381759</v>
       </c>
       <c r="E19" t="n">
-        <v>52.40980322217442</v>
+        <v>52.4098032221744</v>
       </c>
       <c r="F19" t="n">
-        <v>51.39688859853649</v>
+        <v>51.39688859853648</v>
       </c>
       <c r="G19" t="n">
-        <v>72.97534164632725</v>
+        <v>72.97534164632724</v>
       </c>
       <c r="H19" t="n">
-        <v>59.38786976116707</v>
+        <v>59.38786976116705</v>
       </c>
       <c r="I19" t="n">
-        <v>31.60985935892529</v>
+        <v>31.60985935892527</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>38.68876276053819</v>
+        <v>38.68876276053817</v>
       </c>
       <c r="S19" t="n">
         <v>112.7136760890196</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>288.7096822390859</v>
+        <v>288.7096822390858</v>
       </c>
       <c r="C20" t="n">
         <v>271.2487323466128</v>
@@ -2089,19 +2089,19 @@
         <v>260.6588821962882</v>
       </c>
       <c r="E20" t="n">
-        <v>287.9062106478671</v>
+        <v>287.906210647867</v>
       </c>
       <c r="F20" t="n">
         <v>312.8518863173167</v>
       </c>
       <c r="G20" t="n">
-        <v>319.0682473259366</v>
+        <v>319.0682473259365</v>
       </c>
       <c r="H20" t="n">
-        <v>222.8140927463261</v>
+        <v>222.814092746326</v>
       </c>
       <c r="I20" t="n">
-        <v>31.23795333591481</v>
+        <v>31.2379533359148</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>64.62799785888544</v>
+        <v>64.627997858885</v>
       </c>
       <c r="T20" t="n">
         <v>119.3959672168082</v>
       </c>
       <c r="U20" t="n">
-        <v>157.1446670222565</v>
+        <v>157.1446670222578</v>
       </c>
       <c r="V20" t="n">
-        <v>233.7280990457402</v>
+        <v>233.7280990457401</v>
       </c>
       <c r="W20" t="n">
-        <v>255.2168092930183</v>
+        <v>255.2168092930182</v>
       </c>
       <c r="X20" t="n">
         <v>275.7069412540743</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.80782075754254</v>
+        <v>85.80782075754253</v>
       </c>
       <c r="C22" t="n">
-        <v>73.22266167423308</v>
+        <v>73.22266167423307</v>
       </c>
       <c r="D22" t="n">
-        <v>54.5913135938176</v>
+        <v>54.59131359381759</v>
       </c>
       <c r="E22" t="n">
-        <v>52.40980322217442</v>
+        <v>52.4098032221744</v>
       </c>
       <c r="F22" t="n">
-        <v>51.39688859853649</v>
+        <v>51.39688859853648</v>
       </c>
       <c r="G22" t="n">
-        <v>72.97534164632725</v>
+        <v>72.97534164632724</v>
       </c>
       <c r="H22" t="n">
-        <v>59.38786976116707</v>
+        <v>59.38786976116705</v>
       </c>
       <c r="I22" t="n">
-        <v>31.60985935892529</v>
+        <v>31.60985935892527</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>38.68876276053819</v>
+        <v>38.68876276053818</v>
       </c>
       <c r="S22" t="n">
         <v>112.7136760890196</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>288.7096822390858</v>
+        <v>288.7096822390857</v>
       </c>
       <c r="C23" t="n">
-        <v>271.2487323466128</v>
+        <v>271.2487323466127</v>
       </c>
       <c r="D23" t="n">
-        <v>260.6588821962882</v>
+        <v>260.6588821962881</v>
       </c>
       <c r="E23" t="n">
-        <v>287.906210647867</v>
+        <v>287.9062106478669</v>
       </c>
       <c r="F23" t="n">
-        <v>312.8518863173167</v>
+        <v>312.8518863173166</v>
       </c>
       <c r="G23" t="n">
         <v>319.0682473259365</v>
@@ -2338,7 +2338,7 @@
         <v>222.814092746326</v>
       </c>
       <c r="I23" t="n">
-        <v>31.23795333591478</v>
+        <v>31.23795333591474</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S23" t="n">
-        <v>64.62799785888524</v>
+        <v>64.62799785888544</v>
       </c>
       <c r="T23" t="n">
         <v>119.3959672168082</v>
       </c>
       <c r="U23" t="n">
-        <v>157.1446670222578</v>
+        <v>157.1446670222574</v>
       </c>
       <c r="V23" t="n">
         <v>233.7280990457401</v>
@@ -2383,10 +2383,10 @@
         <v>255.2168092930182</v>
       </c>
       <c r="X23" t="n">
-        <v>275.7069412540743</v>
+        <v>275.7069412540742</v>
       </c>
       <c r="Y23" t="n">
-        <v>292.2137792316588</v>
+        <v>292.2137792316587</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.80782075754252</v>
+        <v>85.80782075754247</v>
       </c>
       <c r="C25" t="n">
-        <v>73.22266167423305</v>
+        <v>73.22266167423301</v>
       </c>
       <c r="D25" t="n">
-        <v>54.59131359381757</v>
+        <v>54.59131359381753</v>
       </c>
       <c r="E25" t="n">
-        <v>52.40980322217439</v>
+        <v>52.40980322217435</v>
       </c>
       <c r="F25" t="n">
-        <v>51.39688859853646</v>
+        <v>51.39688859853642</v>
       </c>
       <c r="G25" t="n">
-        <v>72.97534164632722</v>
+        <v>72.97534164632718</v>
       </c>
       <c r="H25" t="n">
-        <v>59.38786976116704</v>
+        <v>59.387869761167</v>
       </c>
       <c r="I25" t="n">
-        <v>31.60985935892526</v>
+        <v>31.60985935892522</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>38.68876276053816</v>
+        <v>38.68876276053812</v>
       </c>
       <c r="S25" t="n">
-        <v>112.7136760890196</v>
+        <v>112.7136760890195</v>
       </c>
       <c r="T25" t="n">
         <v>129.6851136835569</v>
       </c>
       <c r="U25" t="n">
-        <v>192.2407892982196</v>
+        <v>192.2407892982195</v>
       </c>
       <c r="V25" t="n">
         <v>158.1134838994332</v>
@@ -2541,7 +2541,7 @@
         <v>192.4988389121962</v>
       </c>
       <c r="X25" t="n">
-        <v>131.6854959646424</v>
+        <v>131.6854959646423</v>
       </c>
       <c r="Y25" t="n">
         <v>124.5604939277</v>
@@ -2566,16 +2566,16 @@
         <v>290.9151919517672</v>
       </c>
       <c r="F26" t="n">
-        <v>315.8608676212168</v>
+        <v>270.7261480627142</v>
       </c>
       <c r="G26" t="n">
         <v>322.0772286298367</v>
       </c>
       <c r="H26" t="n">
-        <v>180.6883544917214</v>
+        <v>225.8230740502262</v>
       </c>
       <c r="I26" t="n">
-        <v>34.24693463981491</v>
+        <v>34.24693463981495</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>67.63697916278537</v>
+        <v>67.63697916278541</v>
       </c>
       <c r="T26" t="n">
         <v>122.4049485207083</v>
       </c>
       <c r="U26" t="n">
-        <v>160.1536483261575</v>
+        <v>160.1536483261576</v>
       </c>
       <c r="V26" t="n">
         <v>236.7370803496403</v>
@@ -2623,7 +2623,7 @@
         <v>278.7159225579744</v>
       </c>
       <c r="Y26" t="n">
-        <v>295.2227605355589</v>
+        <v>295.222760535559</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>88.81680206144264</v>
+        <v>88.81680206144269</v>
       </c>
       <c r="C28" t="n">
-        <v>76.23164297813318</v>
+        <v>76.23164297813322</v>
       </c>
       <c r="D28" t="n">
-        <v>57.6002948977177</v>
+        <v>57.60029489771775</v>
       </c>
       <c r="E28" t="n">
-        <v>55.41878452607452</v>
+        <v>55.41878452607456</v>
       </c>
       <c r="F28" t="n">
-        <v>54.40586990243659</v>
+        <v>54.40586990243663</v>
       </c>
       <c r="G28" t="n">
-        <v>75.98432295022735</v>
+        <v>75.98432295022739</v>
       </c>
       <c r="H28" t="n">
-        <v>62.39685106506717</v>
+        <v>62.39685106506722</v>
       </c>
       <c r="I28" t="n">
-        <v>34.61884066282539</v>
+        <v>34.61884066282543</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.6977440644383</v>
+        <v>41.69774406443834</v>
       </c>
       <c r="S28" t="n">
-        <v>115.7226573929197</v>
+        <v>115.72265739292</v>
       </c>
       <c r="T28" t="n">
-        <v>132.694094987457</v>
+        <v>132.6940949874571</v>
       </c>
       <c r="U28" t="n">
-        <v>195.2497706021196</v>
+        <v>195.2497706021192</v>
       </c>
       <c r="V28" t="n">
-        <v>161.1224652033333</v>
+        <v>161.1224652033334</v>
       </c>
       <c r="W28" t="n">
-        <v>195.5078202160963</v>
+        <v>195.5078202160964</v>
       </c>
       <c r="X28" t="n">
         <v>134.6944772685425</v>
       </c>
       <c r="Y28" t="n">
-        <v>127.5694752316001</v>
+        <v>127.5694752316002</v>
       </c>
     </row>
     <row r="29">
@@ -2806,13 +2806,13 @@
         <v>315.8608676212168</v>
       </c>
       <c r="G29" t="n">
-        <v>311.1894437111463</v>
+        <v>276.942509071334</v>
       </c>
       <c r="H29" t="n">
         <v>225.8230740502262</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>34.24693463981494</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>54.40586990243662</v>
       </c>
       <c r="G31" t="n">
-        <v>75.98432295022738</v>
+        <v>75.98432295022707</v>
       </c>
       <c r="H31" t="n">
         <v>62.39685106506721</v>
       </c>
       <c r="I31" t="n">
-        <v>34.61884066282542</v>
+        <v>34.6188406628254</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>132.6940949874571</v>
       </c>
       <c r="U31" t="n">
-        <v>195.2497706021197</v>
+        <v>195.2497706021196</v>
       </c>
       <c r="V31" t="n">
         <v>161.1224652033334</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>288.7096822390856</v>
+        <v>288.7096822390858</v>
       </c>
       <c r="C32" t="n">
-        <v>271.2487323466126</v>
+        <v>271.2487323466128</v>
       </c>
       <c r="D32" t="n">
-        <v>260.658882196288</v>
+        <v>260.6588821962882</v>
       </c>
       <c r="E32" t="n">
-        <v>287.9062106478668</v>
+        <v>287.906210647867</v>
       </c>
       <c r="F32" t="n">
-        <v>312.8518863173165</v>
+        <v>312.8518863173167</v>
       </c>
       <c r="G32" t="n">
-        <v>319.0682473259363</v>
+        <v>319.0682473259365</v>
       </c>
       <c r="H32" t="n">
-        <v>222.8140927463259</v>
+        <v>222.8140927463261</v>
       </c>
       <c r="I32" t="n">
-        <v>31.23795333591461</v>
+        <v>31.23795333591478</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>64.627997858885</v>
       </c>
       <c r="T32" t="n">
-        <v>119.395967216808</v>
+        <v>119.3959672168082</v>
       </c>
       <c r="U32" t="n">
         <v>157.1446670222574</v>
       </c>
       <c r="V32" t="n">
-        <v>233.72809904574</v>
+        <v>233.7280990457401</v>
       </c>
       <c r="W32" t="n">
-        <v>255.2168092930181</v>
+        <v>255.2168092930182</v>
       </c>
       <c r="X32" t="n">
-        <v>275.7069412540741</v>
+        <v>275.7069412540743</v>
       </c>
       <c r="Y32" t="n">
-        <v>292.2137792316586</v>
+        <v>292.2137792316588</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>85.80782075754234</v>
+        <v>85.80782075754252</v>
       </c>
       <c r="C34" t="n">
-        <v>73.22266167423288</v>
+        <v>73.22266167423305</v>
       </c>
       <c r="D34" t="n">
-        <v>54.5913135938174</v>
+        <v>54.59131359381757</v>
       </c>
       <c r="E34" t="n">
-        <v>52.40980322217422</v>
+        <v>52.40980322217439</v>
       </c>
       <c r="F34" t="n">
-        <v>51.39688859853629</v>
+        <v>51.39688859853646</v>
       </c>
       <c r="G34" t="n">
-        <v>72.97534164632705</v>
+        <v>72.97534164632722</v>
       </c>
       <c r="H34" t="n">
-        <v>59.38786976116687</v>
+        <v>59.38786976116704</v>
       </c>
       <c r="I34" t="n">
-        <v>31.60985935892509</v>
+        <v>31.60985935892526</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>38.68876276053799</v>
+        <v>38.68876276053816</v>
       </c>
       <c r="S34" t="n">
-        <v>112.7136760890194</v>
+        <v>112.7136760890196</v>
       </c>
       <c r="T34" t="n">
-        <v>129.6851136835568</v>
+        <v>129.6851136835569</v>
       </c>
       <c r="U34" t="n">
-        <v>192.2407892982194</v>
+        <v>192.2407892982196</v>
       </c>
       <c r="V34" t="n">
-        <v>158.113483899433</v>
+        <v>158.1134838994332</v>
       </c>
       <c r="W34" t="n">
-        <v>192.498838912196</v>
+        <v>192.4988389121962</v>
       </c>
       <c r="X34" t="n">
-        <v>131.6854959646422</v>
+        <v>131.6854959646424</v>
       </c>
       <c r="Y34" t="n">
-        <v>124.5604939276998</v>
+        <v>124.5604939277</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>288.7096822390856</v>
+        <v>288.7096822390858</v>
       </c>
       <c r="C35" t="n">
-        <v>271.2487323466126</v>
+        <v>271.2487323466128</v>
       </c>
       <c r="D35" t="n">
-        <v>260.658882196288</v>
+        <v>260.6588821962882</v>
       </c>
       <c r="E35" t="n">
-        <v>287.9062106478668</v>
+        <v>287.906210647867</v>
       </c>
       <c r="F35" t="n">
-        <v>312.8518863173165</v>
+        <v>312.8518863173167</v>
       </c>
       <c r="G35" t="n">
-        <v>319.0682473259363</v>
+        <v>319.0682473259365</v>
       </c>
       <c r="H35" t="n">
-        <v>222.8140927463259</v>
+        <v>222.814092746326</v>
       </c>
       <c r="I35" t="n">
-        <v>31.23795333591461</v>
+        <v>31.23795333591478</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.62799785888507</v>
+        <v>64.62799785888524</v>
       </c>
       <c r="T35" t="n">
-        <v>119.395967216808</v>
+        <v>119.3959672168082</v>
       </c>
       <c r="U35" t="n">
-        <v>157.1446670222569</v>
+        <v>157.1446670222578</v>
       </c>
       <c r="V35" t="n">
-        <v>233.72809904574</v>
+        <v>233.7280990457401</v>
       </c>
       <c r="W35" t="n">
-        <v>255.2168092930181</v>
+        <v>255.2168092930182</v>
       </c>
       <c r="X35" t="n">
-        <v>275.7069412540741</v>
+        <v>275.7069412540743</v>
       </c>
       <c r="Y35" t="n">
-        <v>292.2137792316586</v>
+        <v>292.2137792316588</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>85.80782075754234</v>
+        <v>85.80782075754252</v>
       </c>
       <c r="C37" t="n">
-        <v>73.22266167423288</v>
+        <v>73.22266167423305</v>
       </c>
       <c r="D37" t="n">
-        <v>54.5913135938174</v>
+        <v>54.59131359381757</v>
       </c>
       <c r="E37" t="n">
-        <v>52.40980322217422</v>
+        <v>52.40980322217439</v>
       </c>
       <c r="F37" t="n">
-        <v>51.39688859853629</v>
+        <v>51.39688859853646</v>
       </c>
       <c r="G37" t="n">
-        <v>72.97534164632705</v>
+        <v>72.97534164632722</v>
       </c>
       <c r="H37" t="n">
-        <v>59.38786976116687</v>
+        <v>59.38786976116704</v>
       </c>
       <c r="I37" t="n">
-        <v>31.60985935892509</v>
+        <v>31.60985935892526</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>38.68876276053799</v>
+        <v>38.68876276053816</v>
       </c>
       <c r="S37" t="n">
-        <v>112.7136760890194</v>
+        <v>112.7136760890196</v>
       </c>
       <c r="T37" t="n">
-        <v>129.6851136835568</v>
+        <v>129.6851136835569</v>
       </c>
       <c r="U37" t="n">
-        <v>192.2407892982194</v>
+        <v>192.2407892982196</v>
       </c>
       <c r="V37" t="n">
-        <v>158.113483899433</v>
+        <v>158.1134838994332</v>
       </c>
       <c r="W37" t="n">
-        <v>192.498838912196</v>
+        <v>192.4988389121962</v>
       </c>
       <c r="X37" t="n">
-        <v>131.6854959646422</v>
+        <v>131.6854959646424</v>
       </c>
       <c r="Y37" t="n">
-        <v>124.5604939276998</v>
+        <v>124.5604939277</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>288.7096822390859</v>
+        <v>288.7096822390857</v>
       </c>
       <c r="C38" t="n">
         <v>271.2487323466128</v>
       </c>
       <c r="D38" t="n">
-        <v>260.6588821962882</v>
+        <v>260.6588821962881</v>
       </c>
       <c r="E38" t="n">
-        <v>287.9062106478671</v>
+        <v>287.9062106478669</v>
       </c>
       <c r="F38" t="n">
-        <v>312.8518863173167</v>
+        <v>312.8518863173166</v>
       </c>
       <c r="G38" t="n">
-        <v>319.0682473259366</v>
+        <v>319.0682473259365</v>
       </c>
       <c r="H38" t="n">
-        <v>222.8140927463261</v>
+        <v>222.814092746326</v>
       </c>
       <c r="I38" t="n">
-        <v>31.23795333591485</v>
+        <v>31.23795333591475</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.627997858885</v>
+        <v>64.62799785888544</v>
       </c>
       <c r="T38" t="n">
-        <v>119.3959672168083</v>
+        <v>119.3959672168082</v>
       </c>
       <c r="U38" t="n">
-        <v>157.1446670222569</v>
+        <v>157.1446670222574</v>
       </c>
       <c r="V38" t="n">
-        <v>233.7280990457402</v>
+        <v>233.7280990457401</v>
       </c>
       <c r="W38" t="n">
-        <v>255.2168092930183</v>
+        <v>255.2168092930182</v>
       </c>
       <c r="X38" t="n">
-        <v>275.7069412540743</v>
+        <v>275.7069412540742</v>
       </c>
       <c r="Y38" t="n">
-        <v>292.2137792316589</v>
+        <v>292.2137792316588</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>85.80782075754259</v>
+        <v>85.80782075754249</v>
       </c>
       <c r="C40" t="n">
-        <v>73.22266167423312</v>
+        <v>73.22266167423302</v>
       </c>
       <c r="D40" t="n">
-        <v>54.59131359381765</v>
+        <v>54.59131359381755</v>
       </c>
       <c r="E40" t="n">
-        <v>52.40980322217446</v>
+        <v>52.40980322217436</v>
       </c>
       <c r="F40" t="n">
-        <v>51.39688859853653</v>
+        <v>51.39688859853644</v>
       </c>
       <c r="G40" t="n">
-        <v>72.97534164632729</v>
+        <v>72.97534164632719</v>
       </c>
       <c r="H40" t="n">
-        <v>59.38786976116711</v>
+        <v>59.38786976116701</v>
       </c>
       <c r="I40" t="n">
-        <v>31.60985935892533</v>
+        <v>31.60985935892523</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>38.68876276053823</v>
+        <v>38.68876276053813</v>
       </c>
       <c r="S40" t="n">
-        <v>112.7136760890196</v>
+        <v>112.7136760890195</v>
       </c>
       <c r="T40" t="n">
-        <v>129.685113683557</v>
+        <v>129.6851136835569</v>
       </c>
       <c r="U40" t="n">
-        <v>192.2407892982196</v>
+        <v>192.2407892982195</v>
       </c>
       <c r="V40" t="n">
-        <v>158.1134838994333</v>
+        <v>158.1134838994332</v>
       </c>
       <c r="W40" t="n">
-        <v>192.4988389121963</v>
+        <v>192.4988389121962</v>
       </c>
       <c r="X40" t="n">
-        <v>131.6854959646424</v>
+        <v>131.6854959646423</v>
       </c>
       <c r="Y40" t="n">
-        <v>124.5604939277001</v>
+        <v>124.5604939277</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>291.7186635429859</v>
+        <v>291.718663542986</v>
       </c>
       <c r="C41" t="n">
         <v>274.2577136505129</v>
@@ -3748,19 +3748,19 @@
         <v>263.6678635001883</v>
       </c>
       <c r="E41" t="n">
-        <v>290.9151919517671</v>
+        <v>290.9151919517672</v>
       </c>
       <c r="F41" t="n">
         <v>315.8608676212168</v>
       </c>
       <c r="G41" t="n">
-        <v>322.0772286298366</v>
+        <v>311.1894437111504</v>
       </c>
       <c r="H41" t="n">
-        <v>180.6883544917251</v>
+        <v>225.8230740502262</v>
       </c>
       <c r="I41" t="n">
-        <v>34.2469346398149</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.63697916278535</v>
+        <v>67.63697916278537</v>
       </c>
       <c r="T41" t="n">
         <v>122.4049485207083</v>
@@ -3799,10 +3799,10 @@
         <v>160.1536483261575</v>
       </c>
       <c r="V41" t="n">
-        <v>236.7370803496402</v>
+        <v>236.7370803496403</v>
       </c>
       <c r="W41" t="n">
-        <v>258.2257905969183</v>
+        <v>258.2257905969184</v>
       </c>
       <c r="X41" t="n">
         <v>278.7159225579744</v>
@@ -3839,7 +3839,7 @@
         <v>100.8137164007008</v>
       </c>
       <c r="I42" t="n">
-        <v>48.67884742407819</v>
+        <v>48.67884742407817</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>26.73095892851813</v>
+        <v>26.73095892851812</v>
       </c>
       <c r="S42" t="n">
         <v>149.7163148892172</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>88.81680206144263</v>
+        <v>88.81680206144264</v>
       </c>
       <c r="C43" t="n">
-        <v>76.23164297813317</v>
+        <v>76.23164297813318</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60029489771769</v>
+        <v>57.6002948977177</v>
       </c>
       <c r="E43" t="n">
-        <v>55.4187845260745</v>
+        <v>55.41878452607452</v>
       </c>
       <c r="F43" t="n">
-        <v>54.40586990243658</v>
+        <v>54.40586990243659</v>
       </c>
       <c r="G43" t="n">
-        <v>75.98432295022734</v>
+        <v>75.98432295022735</v>
       </c>
       <c r="H43" t="n">
-        <v>62.39685106506717</v>
+        <v>62.39685106506715</v>
       </c>
       <c r="I43" t="n">
         <v>34.61884066282538</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.69774406443831</v>
+        <v>41.6977440644383</v>
       </c>
       <c r="S43" t="n">
         <v>115.7226573929197</v>
       </c>
       <c r="T43" t="n">
-        <v>132.6940949874568</v>
+        <v>132.694094987457</v>
       </c>
       <c r="U43" t="n">
-        <v>195.2497706021203</v>
+        <v>195.2497706021201</v>
       </c>
       <c r="V43" t="n">
         <v>161.1224652033333</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>291.7186635429859</v>
+        <v>291.718663542986</v>
       </c>
       <c r="C44" t="n">
         <v>274.2577136505129</v>
@@ -3985,16 +3985,16 @@
         <v>263.6678635001883</v>
       </c>
       <c r="E44" t="n">
-        <v>290.9151919517671</v>
+        <v>290.9151919517672</v>
       </c>
       <c r="F44" t="n">
         <v>315.8608676212168</v>
       </c>
       <c r="G44" t="n">
-        <v>322.0772286298366</v>
+        <v>322.0772286298367</v>
       </c>
       <c r="H44" t="n">
-        <v>225.8230740502261</v>
+        <v>214.9352891315398</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>56.74919424409883</v>
+        <v>67.63697916278537</v>
       </c>
       <c r="T44" t="n">
         <v>122.4049485207083</v>
@@ -4036,10 +4036,10 @@
         <v>160.1536483261575</v>
       </c>
       <c r="V44" t="n">
-        <v>236.7370803496402</v>
+        <v>236.7370803496403</v>
       </c>
       <c r="W44" t="n">
-        <v>258.2257905969183</v>
+        <v>258.2257905969184</v>
       </c>
       <c r="X44" t="n">
         <v>278.7159225579744</v>
@@ -4076,7 +4076,7 @@
         <v>100.8137164007008</v>
       </c>
       <c r="I45" t="n">
-        <v>48.67884742407819</v>
+        <v>48.67884742407817</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>26.73095892851813</v>
+        <v>26.73095892851812</v>
       </c>
       <c r="S45" t="n">
         <v>149.7163148892172</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>88.8168020614426</v>
+        <v>88.81680206144264</v>
       </c>
       <c r="C46" t="n">
-        <v>76.23164297813314</v>
+        <v>76.23164297813318</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60029489771766</v>
+        <v>57.6002948977177</v>
       </c>
       <c r="E46" t="n">
-        <v>55.41878452607448</v>
+        <v>55.41878452607452</v>
       </c>
       <c r="F46" t="n">
-        <v>54.40586990243655</v>
+        <v>54.40586990243713</v>
       </c>
       <c r="G46" t="n">
-        <v>75.98432295022731</v>
+        <v>75.98432295022735</v>
       </c>
       <c r="H46" t="n">
-        <v>62.39685106506712</v>
+        <v>62.39685106506717</v>
       </c>
       <c r="I46" t="n">
-        <v>34.61884066282632</v>
+        <v>34.61884066282538</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.69774406443825</v>
+        <v>41.69774406443828</v>
       </c>
       <c r="S46" t="n">
         <v>115.7226573929197</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122.6530896684844</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C2" t="n">
-        <v>122.6530896684844</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D2" t="n">
-        <v>122.6530896684844</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E2" t="n">
-        <v>122.6530896684844</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F2" t="n">
-        <v>115.7075889192809</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G2" t="n">
-        <v>100.2502782979324</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>100.2502782979324</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>122.6530896684844</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.6530896684844</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>706.3289344460964</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C3" t="n">
-        <v>531.8759051649694</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D3" t="n">
-        <v>382.9414955037181</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E3" t="n">
         <v>223.7040404982626</v>
@@ -4412,10 +4412,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M3" t="n">
         <v>542.809531908403</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>834.8317845150273</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>834.8317845150273</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>834.8317845150273</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>599.6796762832846</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>599.6796762832846</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>599.6796762832846</v>
       </c>
       <c r="Y3" t="n">
-        <v>874.5442714661644</v>
+        <v>391.9193775183306</v>
       </c>
     </row>
     <row r="4">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
         <v>19.28114311021272</v>
@@ -4509,31 +4509,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>315.6850394389064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C5" t="n">
-        <v>266.3558523848238</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="D5" t="n">
-        <v>266.3558523848238</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="E5" t="n">
         <v>266.3558523848238</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y5" t="n">
-        <v>559.1338160830064</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>588.4532163200711</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="C6" t="n">
-        <v>588.4532163200711</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="D6" t="n">
-        <v>588.4532163200711</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4655,7 +4655,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
         <v>473.4149733950735</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>588.4532163200711</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y6" t="n">
-        <v>588.4532163200711</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
         <v>19.28114311021272</v>
@@ -4770,7 +4770,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>366.1018663125844</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C8" t="n">
-        <v>366.1018663125844</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D8" t="n">
-        <v>366.1018663125844</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>366.1018663125844</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>259.4103516356203</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>366.1018663125844</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="X8" t="n">
-        <v>366.1018663125844</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="Y8" t="n">
-        <v>366.1018663125844</v>
+        <v>297.2027203719481</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>878.2251822441752</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>703.7721529630483</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>554.837743301797</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4892,10 +4892,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
         <v>781.4136778972854</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1768.635817725125</v>
+        <v>1814.226443541793</v>
       </c>
       <c r="C11" t="n">
-        <v>1491.607824138748</v>
+        <v>1537.198449955416</v>
       </c>
       <c r="D11" t="n">
-        <v>1225.276648886032</v>
+        <v>1270.867274702701</v>
       </c>
       <c r="E11" t="n">
-        <v>931.4229196418228</v>
+        <v>977.0135454584916</v>
       </c>
       <c r="F11" t="n">
-        <v>612.3715382062502</v>
+        <v>657.9621640229191</v>
       </c>
       <c r="G11" t="n">
-        <v>287.0410042367182</v>
+        <v>332.6316300533871</v>
       </c>
       <c r="H11" t="n">
         <v>104.5275148511384</v>
       </c>
       <c r="I11" t="n">
-        <v>69.93465157859804</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J11" t="n">
-        <v>243.8279252593011</v>
+        <v>243.8279252593006</v>
       </c>
       <c r="K11" t="n">
-        <v>625.1936695733943</v>
+        <v>625.1936695733931</v>
       </c>
       <c r="L11" t="n">
-        <v>1150.588225603152</v>
+        <v>1150.588225603151</v>
       </c>
       <c r="M11" t="n">
-        <v>1751.797447352348</v>
+        <v>1751.797447352347</v>
       </c>
       <c r="N11" t="n">
-        <v>2348.102865308523</v>
+        <v>2348.102865308522</v>
       </c>
       <c r="O11" t="n">
-        <v>2865.989524423015</v>
+        <v>2865.989524423014</v>
       </c>
       <c r="P11" t="n">
         <v>3270.319423338377</v>
       </c>
       <c r="Q11" t="n">
-        <v>3496.732578929902</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="R11" t="n">
-        <v>3496.732578929902</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="S11" t="n">
-        <v>3428.412397957391</v>
+        <v>3474.00302377406</v>
       </c>
       <c r="T11" t="n">
-        <v>3304.771035815261</v>
+        <v>3350.36166163193</v>
       </c>
       <c r="U11" t="n">
-        <v>3142.999673869648</v>
+        <v>3188.590299686316</v>
       </c>
       <c r="V11" t="n">
-        <v>2903.871309880112</v>
+        <v>2949.461935696781</v>
       </c>
       <c r="W11" t="n">
-        <v>2643.037177964033</v>
+        <v>2688.627803780702</v>
       </c>
       <c r="X11" t="n">
-        <v>2361.505943056988</v>
+        <v>2407.096568873657</v>
       </c>
       <c r="Y11" t="n">
-        <v>2063.301134435211</v>
+        <v>2108.89176025188</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>220.937241300597</v>
       </c>
       <c r="H12" t="n">
-        <v>119.1052045322124</v>
+        <v>119.1052045322123</v>
       </c>
       <c r="I12" t="n">
-        <v>69.93465157859804</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J12" t="n">
         <v>179.8109144116361</v>
       </c>
       <c r="K12" t="n">
-        <v>494.227791541764</v>
+        <v>285.2753110638329</v>
       </c>
       <c r="L12" t="n">
-        <v>978.4044805826622</v>
+        <v>769.4520001047312</v>
       </c>
       <c r="M12" t="n">
-        <v>1134.347048082142</v>
+        <v>1386.442580716711</v>
       </c>
       <c r="N12" t="n">
-        <v>1783.374546837606</v>
+        <v>2035.470079472175</v>
       </c>
       <c r="O12" t="n">
-        <v>2039.533108956335</v>
+        <v>2562.787764768364</v>
       </c>
       <c r="P12" t="n">
-        <v>2445.748972877462</v>
+        <v>2653.725487735952</v>
       </c>
       <c r="Q12" t="n">
         <v>2664.59575085658</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>490.7999111568629</v>
+        <v>490.7999111568635</v>
       </c>
       <c r="C13" t="n">
-        <v>413.798251582991</v>
+        <v>413.7982515829916</v>
       </c>
       <c r="D13" t="n">
-        <v>355.6161355246902</v>
+        <v>355.6161355246908</v>
       </c>
       <c r="E13" t="n">
-        <v>299.6375652963321</v>
+        <v>299.6375652963326</v>
       </c>
       <c r="F13" t="n">
-        <v>244.6821411524567</v>
+        <v>244.6821411524572</v>
       </c>
       <c r="G13" t="n">
         <v>167.9302997885906</v>
@@ -5196,7 +5196,7 @@
         <v>104.9031775006439</v>
       </c>
       <c r="I13" t="n">
-        <v>69.93465157859804</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J13" t="n">
         <v>137.0106293959408</v>
@@ -5205,10 +5205,10 @@
         <v>319.1086914830887</v>
       </c>
       <c r="L13" t="n">
-        <v>582.4595660889144</v>
+        <v>582.4595660889142</v>
       </c>
       <c r="M13" t="n">
-        <v>865.6171716594309</v>
+        <v>865.6171716594308</v>
       </c>
       <c r="N13" t="n">
         <v>1149.619034811413</v>
@@ -5223,13 +5223,13 @@
         <v>1695.926483912368</v>
       </c>
       <c r="R13" t="n">
-        <v>1653.807550513945</v>
+        <v>1653.807550513946</v>
       </c>
       <c r="S13" t="n">
-        <v>1536.915977389784</v>
+        <v>1536.915977389785</v>
       </c>
       <c r="T13" t="n">
-        <v>1402.881538008514</v>
+        <v>1402.881538008515</v>
       </c>
       <c r="U13" t="n">
         <v>1205.659547501323</v>
@@ -5238,13 +5238,13 @@
         <v>1042.909582649471</v>
       </c>
       <c r="W13" t="n">
-        <v>845.4269359665452</v>
+        <v>845.4269359665457</v>
       </c>
       <c r="X13" t="n">
-        <v>709.3719084225628</v>
+        <v>709.3719084225634</v>
       </c>
       <c r="Y13" t="n">
-        <v>580.5138526330677</v>
+        <v>580.5138526330683</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1814.226443541793</v>
+        <v>1768.635817725124</v>
       </c>
       <c r="C14" t="n">
-        <v>1537.198449955416</v>
+        <v>1491.607824138747</v>
       </c>
       <c r="D14" t="n">
-        <v>1270.867274702701</v>
+        <v>1225.276648886032</v>
       </c>
       <c r="E14" t="n">
-        <v>977.0135454584916</v>
+        <v>931.4229196418223</v>
       </c>
       <c r="F14" t="n">
-        <v>657.9621640229191</v>
+        <v>612.3715382062497</v>
       </c>
       <c r="G14" t="n">
         <v>332.6316300533871</v>
@@ -5278,22 +5278,22 @@
         <v>69.93465157859802</v>
       </c>
       <c r="J14" t="n">
-        <v>243.8279252593002</v>
+        <v>243.8279252593006</v>
       </c>
       <c r="K14" t="n">
-        <v>625.1936695733925</v>
+        <v>625.1936695733931</v>
       </c>
       <c r="L14" t="n">
-        <v>1150.58822560315</v>
+        <v>1150.588225603151</v>
       </c>
       <c r="M14" t="n">
-        <v>1751.797447352346</v>
+        <v>1751.797447352347</v>
       </c>
       <c r="N14" t="n">
-        <v>2348.102865308521</v>
+        <v>2348.102865308522</v>
       </c>
       <c r="O14" t="n">
-        <v>2865.989524423013</v>
+        <v>2865.989524423014</v>
       </c>
       <c r="P14" t="n">
         <v>3270.319423338377</v>
@@ -5311,19 +5311,19 @@
         <v>3304.771035815261</v>
       </c>
       <c r="U14" t="n">
-        <v>3188.590299686316</v>
+        <v>3142.999673869647</v>
       </c>
       <c r="V14" t="n">
-        <v>2949.461935696781</v>
+        <v>2903.871309880112</v>
       </c>
       <c r="W14" t="n">
-        <v>2688.627803780702</v>
+        <v>2643.037177964033</v>
       </c>
       <c r="X14" t="n">
-        <v>2407.096568873657</v>
+        <v>2361.505943056988</v>
       </c>
       <c r="Y14" t="n">
-        <v>2108.89176025188</v>
+        <v>2063.301134435211</v>
       </c>
     </row>
     <row r="15">
@@ -5366,7 +5366,7 @@
         <v>978.4044805826622</v>
       </c>
       <c r="M15" t="n">
-        <v>1134.347048082142</v>
+        <v>1337.7368755048</v>
       </c>
       <c r="N15" t="n">
         <v>1512.215423660147</v>
@@ -5415,16 +5415,16 @@
         <v>490.7999111568629</v>
       </c>
       <c r="C16" t="n">
-        <v>413.798251582991</v>
+        <v>413.7982515829909</v>
       </c>
       <c r="D16" t="n">
         <v>355.6161355246902</v>
       </c>
       <c r="E16" t="n">
-        <v>299.6375652963321</v>
+        <v>299.637565296332</v>
       </c>
       <c r="F16" t="n">
-        <v>244.6821411524567</v>
+        <v>244.6821411524566</v>
       </c>
       <c r="G16" t="n">
         <v>167.9302997885906</v>
@@ -5439,13 +5439,13 @@
         <v>137.0106293959408</v>
       </c>
       <c r="K16" t="n">
-        <v>319.1086914830886</v>
+        <v>319.1086914830887</v>
       </c>
       <c r="L16" t="n">
-        <v>582.4595660889142</v>
+        <v>582.4595660889144</v>
       </c>
       <c r="M16" t="n">
-        <v>865.6171716594308</v>
+        <v>865.6171716594311</v>
       </c>
       <c r="N16" t="n">
         <v>1149.619034811413</v>
@@ -5475,13 +5475,13 @@
         <v>1042.909582649471</v>
       </c>
       <c r="W16" t="n">
-        <v>845.4269359665452</v>
+        <v>845.426935966545</v>
       </c>
       <c r="X16" t="n">
-        <v>709.3719084225628</v>
+        <v>709.3719084225627</v>
       </c>
       <c r="Y16" t="n">
-        <v>580.5138526330677</v>
+        <v>580.5138526330676</v>
       </c>
     </row>
     <row r="17">
@@ -5500,22 +5500,22 @@
         <v>1255.670399430478</v>
       </c>
       <c r="E17" t="n">
-        <v>964.8560452407135</v>
+        <v>964.8560452407133</v>
       </c>
       <c r="F17" t="n">
         <v>648.8440388595855</v>
       </c>
       <c r="G17" t="n">
-        <v>326.5528799444979</v>
+        <v>326.552879944498</v>
       </c>
       <c r="H17" t="n">
-        <v>101.4881397966938</v>
+        <v>101.488139796694</v>
       </c>
       <c r="I17" t="n">
         <v>69.93465157859802</v>
       </c>
       <c r="J17" t="n">
-        <v>243.8279252593011</v>
+        <v>243.8279252593008</v>
       </c>
       <c r="K17" t="n">
         <v>625.1936695733934</v>
@@ -5524,10 +5524,10 @@
         <v>1150.588225603151</v>
       </c>
       <c r="M17" t="n">
-        <v>1751.797447352347</v>
+        <v>1751.797447352348</v>
       </c>
       <c r="N17" t="n">
-        <v>2348.102865308522</v>
+        <v>2348.102865308523</v>
       </c>
       <c r="O17" t="n">
         <v>2865.989524423014</v>
@@ -5548,13 +5548,13 @@
         <v>3310.84978592415</v>
       </c>
       <c r="U17" t="n">
-        <v>3152.117799032982</v>
+        <v>3152.117799032981</v>
       </c>
       <c r="V17" t="n">
-        <v>2916.028810097891</v>
+        <v>2916.02881009789</v>
       </c>
       <c r="W17" t="n">
-        <v>2658.234053236256</v>
+        <v>2658.234053236255</v>
       </c>
       <c r="X17" t="n">
         <v>2379.742193383655</v>
@@ -5588,25 +5588,25 @@
         <v>220.937241300597</v>
       </c>
       <c r="H18" t="n">
-        <v>119.1052045322124</v>
+        <v>119.1052045322123</v>
       </c>
       <c r="I18" t="n">
         <v>69.93465157859802</v>
       </c>
       <c r="J18" t="n">
-        <v>179.810914411636</v>
+        <v>179.8109144116361</v>
       </c>
       <c r="K18" t="n">
-        <v>494.2277915417638</v>
+        <v>232.4072068993111</v>
       </c>
       <c r="L18" t="n">
-        <v>611.2725387322374</v>
+        <v>716.5838959402093</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.263119344217</v>
+        <v>1333.574476552189</v>
       </c>
       <c r="N18" t="n">
-        <v>1877.290618099681</v>
+        <v>1512.215423660147</v>
       </c>
       <c r="O18" t="n">
         <v>2039.533108956335</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>469.5242857757507</v>
+        <v>469.5242857757506</v>
       </c>
       <c r="C19" t="n">
-        <v>395.5620012563234</v>
+        <v>395.5620012563233</v>
       </c>
       <c r="D19" t="n">
-        <v>340.4192602524673</v>
+        <v>340.4192602524672</v>
       </c>
       <c r="E19" t="n">
-        <v>287.4800650785537</v>
+        <v>287.4800650785536</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5640159891229</v>
+        <v>235.5640159891228</v>
       </c>
       <c r="G19" t="n">
         <v>161.8515496797014</v>
@@ -5676,49 +5676,49 @@
         <v>139.9895208868019</v>
       </c>
       <c r="K19" t="n">
-        <v>325.0664744648109</v>
+        <v>325.066474464811</v>
       </c>
       <c r="L19" t="n">
-        <v>591.3962405614976</v>
+        <v>591.3962405614977</v>
       </c>
       <c r="M19" t="n">
-        <v>877.5327376228754</v>
+        <v>877.5327376228755</v>
       </c>
       <c r="N19" t="n">
-        <v>1164.513492265719</v>
+        <v>1092.052359467716</v>
       </c>
       <c r="O19" t="n">
-        <v>1420.676226490349</v>
+        <v>1348.215093692347</v>
       </c>
       <c r="P19" t="n">
-        <v>1629.781562253193</v>
+        <v>1557.320429455191</v>
       </c>
       <c r="Q19" t="n">
-        <v>1647.296483041255</v>
+        <v>1647.296483041254</v>
       </c>
       <c r="R19" t="n">
-        <v>1608.216924697277</v>
+        <v>1608.216924697276</v>
       </c>
       <c r="S19" t="n">
         <v>1494.36472662756</v>
       </c>
       <c r="T19" t="n">
-        <v>1363.369662300735</v>
+        <v>1363.369662300734</v>
       </c>
       <c r="U19" t="n">
-        <v>1169.187046847988</v>
+        <v>1169.187046847987</v>
       </c>
       <c r="V19" t="n">
         <v>1009.47645705058</v>
       </c>
       <c r="W19" t="n">
-        <v>815.0331854220992</v>
+        <v>815.033185422099</v>
       </c>
       <c r="X19" t="n">
-        <v>682.0175329325614</v>
+        <v>682.0175329325613</v>
       </c>
       <c r="Y19" t="n">
-        <v>556.1988521975109</v>
+        <v>556.1988521975107</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>964.8560452407132</v>
       </c>
       <c r="F20" t="n">
-        <v>648.8440388595852</v>
+        <v>648.844038859585</v>
       </c>
       <c r="G20" t="n">
         <v>326.5528799444978</v>
@@ -5752,10 +5752,10 @@
         <v>69.93465157859802</v>
       </c>
       <c r="J20" t="n">
-        <v>243.8279252593008</v>
+        <v>243.8279252593011</v>
       </c>
       <c r="K20" t="n">
-        <v>625.1936695733933</v>
+        <v>625.1936695733934</v>
       </c>
       <c r="L20" t="n">
         <v>1150.588225603151</v>
@@ -5767,7 +5767,7 @@
         <v>2348.102865308522</v>
       </c>
       <c r="O20" t="n">
-        <v>2865.989524423013</v>
+        <v>2865.989524423014</v>
       </c>
       <c r="P20" t="n">
         <v>3270.319423338377</v>
@@ -5782,10 +5782,10 @@
         <v>3431.451773011835</v>
       </c>
       <c r="T20" t="n">
-        <v>3310.84978592415</v>
+        <v>3310.849785924151</v>
       </c>
       <c r="U20" t="n">
-        <v>3152.117799032982</v>
+        <v>3152.117799032981</v>
       </c>
       <c r="V20" t="n">
         <v>2916.02881009789</v>
@@ -5834,19 +5834,19 @@
         <v>69.93465157859802</v>
       </c>
       <c r="K21" t="n">
-        <v>285.2753110638333</v>
+        <v>122.530944066273</v>
       </c>
       <c r="L21" t="n">
-        <v>769.4520001047315</v>
+        <v>606.7076331071712</v>
       </c>
       <c r="M21" t="n">
-        <v>1386.442580716711</v>
+        <v>1223.698213719151</v>
       </c>
       <c r="N21" t="n">
-        <v>2035.470079472175</v>
+        <v>1872.725712474615</v>
       </c>
       <c r="O21" t="n">
-        <v>2562.787764768364</v>
+        <v>2400.043397770803</v>
       </c>
       <c r="P21" t="n">
         <v>2653.725487735952</v>
@@ -5892,7 +5892,7 @@
         <v>395.5620012563234</v>
       </c>
       <c r="D22" t="n">
-        <v>340.4192602524673</v>
+        <v>340.4192602524672</v>
       </c>
       <c r="E22" t="n">
         <v>287.4800650785537</v>
@@ -5910,46 +5910,46 @@
         <v>69.93465157859802</v>
       </c>
       <c r="J22" t="n">
-        <v>139.9895208868019</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="K22" t="n">
-        <v>325.0664744648109</v>
+        <v>252.6053416668086</v>
       </c>
       <c r="L22" t="n">
-        <v>591.3962405614976</v>
+        <v>518.9351077634954</v>
       </c>
       <c r="M22" t="n">
-        <v>877.5327376228754</v>
+        <v>805.071604824873</v>
       </c>
       <c r="N22" t="n">
-        <v>1164.513492265719</v>
+        <v>1092.052359467716</v>
       </c>
       <c r="O22" t="n">
-        <v>1420.676226490349</v>
+        <v>1348.215093692347</v>
       </c>
       <c r="P22" t="n">
-        <v>1557.320429455192</v>
+        <v>1557.320429455191</v>
       </c>
       <c r="Q22" t="n">
-        <v>1647.296483041255</v>
+        <v>1647.296483041254</v>
       </c>
       <c r="R22" t="n">
-        <v>1608.216924697277</v>
+        <v>1608.216924697276</v>
       </c>
       <c r="S22" t="n">
         <v>1494.36472662756</v>
       </c>
       <c r="T22" t="n">
-        <v>1363.369662300735</v>
+        <v>1363.369662300734</v>
       </c>
       <c r="U22" t="n">
-        <v>1169.187046847988</v>
+        <v>1169.187046847987</v>
       </c>
       <c r="V22" t="n">
         <v>1009.47645705058</v>
       </c>
       <c r="W22" t="n">
-        <v>815.0331854220992</v>
+        <v>815.0331854220991</v>
       </c>
       <c r="X22" t="n">
         <v>682.0175329325614</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1792.95081816068</v>
+        <v>1792.950818160681</v>
       </c>
       <c r="C23" t="n">
-        <v>1518.962199628748</v>
+        <v>1518.962199628749</v>
       </c>
       <c r="D23" t="n">
         <v>1255.670399430478</v>
       </c>
       <c r="E23" t="n">
-        <v>964.8560452407128</v>
+        <v>964.8560452407131</v>
       </c>
       <c r="F23" t="n">
-        <v>648.8440388595848</v>
+        <v>648.8440388595852</v>
       </c>
       <c r="G23" t="n">
-        <v>326.5528799444974</v>
+        <v>326.5528799444977</v>
       </c>
       <c r="H23" t="n">
-        <v>101.4881397966938</v>
+        <v>101.4881397966937</v>
       </c>
       <c r="I23" t="n">
         <v>69.93465157859802</v>
@@ -6068,16 +6068,16 @@
         <v>69.93465157859802</v>
       </c>
       <c r="J24" t="n">
-        <v>69.93465157859802</v>
+        <v>179.810914411636</v>
       </c>
       <c r="K24" t="n">
-        <v>384.3515287087258</v>
+        <v>494.2277915417638</v>
       </c>
       <c r="L24" t="n">
-        <v>501.3962758991994</v>
+        <v>978.404480582662</v>
       </c>
       <c r="M24" t="n">
-        <v>1118.386856511179</v>
+        <v>1134.347048082142</v>
       </c>
       <c r="N24" t="n">
         <v>1512.215423660147</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>469.5242857757506</v>
+        <v>469.5242857757503</v>
       </c>
       <c r="C25" t="n">
-        <v>395.5620012563232</v>
+        <v>395.562001256323</v>
       </c>
       <c r="D25" t="n">
-        <v>340.4192602524671</v>
+        <v>340.4192602524669</v>
       </c>
       <c r="E25" t="n">
-        <v>287.4800650785536</v>
+        <v>287.4800650785534</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5640159891228</v>
+        <v>235.5640159891227</v>
       </c>
       <c r="G25" t="n">
         <v>161.8515496797013</v>
@@ -6147,25 +6147,25 @@
         <v>69.93465157859802</v>
       </c>
       <c r="J25" t="n">
-        <v>139.9895208868019</v>
+        <v>139.989520886802</v>
       </c>
       <c r="K25" t="n">
-        <v>252.6053416668082</v>
+        <v>325.0664744648111</v>
       </c>
       <c r="L25" t="n">
-        <v>518.9351077634949</v>
+        <v>591.396240561498</v>
       </c>
       <c r="M25" t="n">
-        <v>805.0716048248726</v>
+        <v>877.5327376228759</v>
       </c>
       <c r="N25" t="n">
-        <v>1092.052359467716</v>
+        <v>1164.513492265719</v>
       </c>
       <c r="O25" t="n">
-        <v>1348.215093692346</v>
+        <v>1420.67622649035</v>
       </c>
       <c r="P25" t="n">
-        <v>1557.320429455191</v>
+        <v>1557.32042945519</v>
       </c>
       <c r="Q25" t="n">
         <v>1647.296483041254</v>
@@ -6186,13 +6186,13 @@
         <v>1009.47645705058</v>
       </c>
       <c r="W25" t="n">
-        <v>815.0331854220989</v>
+        <v>815.0331854220987</v>
       </c>
       <c r="X25" t="n">
-        <v>682.0175329325612</v>
+        <v>682.0175329325609</v>
       </c>
       <c r="Y25" t="n">
-        <v>556.1988521975106</v>
+        <v>556.1988521975104</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1768.635817725121</v>
+        <v>1768.635817725124</v>
       </c>
       <c r="C26" t="n">
-        <v>1491.607824138745</v>
+        <v>1491.607824138747</v>
       </c>
       <c r="D26" t="n">
-        <v>1225.276648886029</v>
+        <v>1225.276648886032</v>
       </c>
       <c r="E26" t="n">
-        <v>931.42291964182</v>
+        <v>931.4229196418223</v>
       </c>
       <c r="F26" t="n">
-        <v>612.3715382062475</v>
+        <v>657.9621640229191</v>
       </c>
       <c r="G26" t="n">
-        <v>287.0410042367155</v>
+        <v>332.6316300533871</v>
       </c>
       <c r="H26" t="n">
-        <v>104.5275148511383</v>
+        <v>104.5275148511384</v>
       </c>
       <c r="I26" t="n">
-        <v>69.93465157859796</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J26" t="n">
-        <v>243.8279252593007</v>
+        <v>243.8279252593011</v>
       </c>
       <c r="K26" t="n">
-        <v>625.1936695733932</v>
+        <v>625.1936695733939</v>
       </c>
       <c r="L26" t="n">
-        <v>1150.588225603151</v>
+        <v>1150.588225603152</v>
       </c>
       <c r="M26" t="n">
-        <v>1751.797447352347</v>
+        <v>1751.797447352348</v>
       </c>
       <c r="N26" t="n">
-        <v>2348.102865308522</v>
+        <v>2348.102865308523</v>
       </c>
       <c r="O26" t="n">
-        <v>2865.989524423013</v>
+        <v>2865.989524423014</v>
       </c>
       <c r="P26" t="n">
         <v>3270.319423338377</v>
       </c>
       <c r="Q26" t="n">
-        <v>3496.7325789299</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="R26" t="n">
-        <v>3496.732578929898</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="S26" t="n">
-        <v>3428.412397957388</v>
+        <v>3428.412397957391</v>
       </c>
       <c r="T26" t="n">
-        <v>3304.771035815258</v>
+        <v>3304.771035815261</v>
       </c>
       <c r="U26" t="n">
-        <v>3142.999673869645</v>
+        <v>3142.999673869647</v>
       </c>
       <c r="V26" t="n">
-        <v>2903.871309880109</v>
+        <v>2903.871309880112</v>
       </c>
       <c r="W26" t="n">
-        <v>2643.03717796403</v>
+        <v>2643.037177964033</v>
       </c>
       <c r="X26" t="n">
-        <v>2361.505943056985</v>
+        <v>2361.505943056988</v>
       </c>
       <c r="Y26" t="n">
-        <v>2063.301134435208</v>
+        <v>2063.301134435211</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>664.2455027065973</v>
       </c>
       <c r="E27" t="n">
-        <v>505.0080477011418</v>
+        <v>505.0080477011419</v>
       </c>
       <c r="F27" t="n">
         <v>358.4734897280268</v>
@@ -6299,19 +6299,19 @@
         <v>220.937241300597</v>
       </c>
       <c r="H27" t="n">
-        <v>119.1052045322123</v>
+        <v>119.1052045322124</v>
       </c>
       <c r="I27" t="n">
-        <v>69.93465157859796</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J27" t="n">
         <v>179.810914411636</v>
       </c>
       <c r="K27" t="n">
-        <v>494.2277915417637</v>
+        <v>494.2277915417638</v>
       </c>
       <c r="L27" t="n">
-        <v>978.4044805826619</v>
+        <v>978.404480582662</v>
       </c>
       <c r="M27" t="n">
         <v>1337.7368755048</v>
@@ -6363,58 +6363,58 @@
         <v>490.7999111568626</v>
       </c>
       <c r="C28" t="n">
-        <v>413.7982515829907</v>
+        <v>413.7982515829906</v>
       </c>
       <c r="D28" t="n">
         <v>355.6161355246899</v>
       </c>
       <c r="E28" t="n">
-        <v>299.6375652963318</v>
+        <v>299.6375652963317</v>
       </c>
       <c r="F28" t="n">
-        <v>244.6821411524565</v>
+        <v>244.6821411524563</v>
       </c>
       <c r="G28" t="n">
-        <v>167.9302997885904</v>
+        <v>167.9302997885906</v>
       </c>
       <c r="H28" t="n">
-        <v>104.9031775006438</v>
+        <v>104.9031775006439</v>
       </c>
       <c r="I28" t="n">
-        <v>69.93465157859796</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J28" t="n">
-        <v>137.0106293959406</v>
+        <v>137.0106293959408</v>
       </c>
       <c r="K28" t="n">
-        <v>319.1086914830885</v>
+        <v>319.1086914830886</v>
       </c>
       <c r="L28" t="n">
-        <v>582.4595660889141</v>
+        <v>582.4595660889142</v>
       </c>
       <c r="M28" t="n">
-        <v>865.6171716594307</v>
+        <v>865.6171716594308</v>
       </c>
       <c r="N28" t="n">
         <v>1149.619034811413</v>
       </c>
       <c r="O28" t="n">
-        <v>1402.802877545183</v>
+        <v>1402.802877545182</v>
       </c>
       <c r="P28" t="n">
-        <v>1608.929321817166</v>
+        <v>1608.929321817165</v>
       </c>
       <c r="Q28" t="n">
-        <v>1695.926483912368</v>
+        <v>1695.926483912367</v>
       </c>
       <c r="R28" t="n">
         <v>1653.807550513945</v>
       </c>
       <c r="S28" t="n">
-        <v>1536.915977389784</v>
+        <v>1536.915977389783</v>
       </c>
       <c r="T28" t="n">
-        <v>1402.881538008514</v>
+        <v>1402.881538008513</v>
       </c>
       <c r="U28" t="n">
         <v>1205.659547501322</v>
@@ -6426,10 +6426,10 @@
         <v>845.4269359665448</v>
       </c>
       <c r="X28" t="n">
-        <v>709.3719084225623</v>
+        <v>709.3719084225625</v>
       </c>
       <c r="Y28" t="n">
-        <v>580.5138526330672</v>
+        <v>580.5138526330674</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1768.635817725121</v>
+        <v>1768.635817725124</v>
       </c>
       <c r="C29" t="n">
-        <v>1491.607824138744</v>
+        <v>1491.607824138747</v>
       </c>
       <c r="D29" t="n">
-        <v>1225.276648886029</v>
+        <v>1225.276648886032</v>
       </c>
       <c r="E29" t="n">
-        <v>931.4229196418196</v>
+        <v>931.4229196418223</v>
       </c>
       <c r="F29" t="n">
-        <v>612.371538206247</v>
+        <v>612.3715382062497</v>
       </c>
       <c r="G29" t="n">
-        <v>298.0387667808467</v>
+        <v>332.6316300533871</v>
       </c>
       <c r="H29" t="n">
-        <v>69.93465157859796</v>
+        <v>104.5275148511384</v>
       </c>
       <c r="I29" t="n">
-        <v>69.93465157859796</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J29" t="n">
-        <v>243.8279252593007</v>
+        <v>243.8279252593011</v>
       </c>
       <c r="K29" t="n">
-        <v>625.1936695733932</v>
+        <v>625.1936695733939</v>
       </c>
       <c r="L29" t="n">
-        <v>1150.588225603151</v>
+        <v>1150.588225603152</v>
       </c>
       <c r="M29" t="n">
-        <v>1751.797447352347</v>
+        <v>1751.797447352348</v>
       </c>
       <c r="N29" t="n">
-        <v>2348.102865308522</v>
+        <v>2348.102865308523</v>
       </c>
       <c r="O29" t="n">
-        <v>2865.989524423013</v>
+        <v>2865.989524423014</v>
       </c>
       <c r="P29" t="n">
         <v>3270.319423338377</v>
       </c>
       <c r="Q29" t="n">
-        <v>3496.7325789299</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="R29" t="n">
-        <v>3496.732578929898</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="S29" t="n">
-        <v>3428.412397957388</v>
+        <v>3428.412397957391</v>
       </c>
       <c r="T29" t="n">
-        <v>3304.771035815258</v>
+        <v>3304.771035815261</v>
       </c>
       <c r="U29" t="n">
-        <v>3142.999673869645</v>
+        <v>3142.999673869647</v>
       </c>
       <c r="V29" t="n">
-        <v>2903.871309880109</v>
+        <v>2903.871309880112</v>
       </c>
       <c r="W29" t="n">
-        <v>2643.03717796403</v>
+        <v>2643.037177964033</v>
       </c>
       <c r="X29" t="n">
-        <v>2361.505943056985</v>
+        <v>2361.505943056988</v>
       </c>
       <c r="Y29" t="n">
-        <v>2063.301134435208</v>
+        <v>2063.301134435211</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>664.2455027065973</v>
       </c>
       <c r="E30" t="n">
-        <v>505.0080477011418</v>
+        <v>505.0080477011419</v>
       </c>
       <c r="F30" t="n">
         <v>358.4734897280268</v>
@@ -6536,28 +6536,28 @@
         <v>220.937241300597</v>
       </c>
       <c r="H30" t="n">
-        <v>119.1052045322123</v>
+        <v>119.1052045322124</v>
       </c>
       <c r="I30" t="n">
-        <v>69.93465157859796</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J30" t="n">
-        <v>69.93465157859796</v>
+        <v>179.810914411636</v>
       </c>
       <c r="K30" t="n">
-        <v>384.3515287087257</v>
+        <v>494.2277915417638</v>
       </c>
       <c r="L30" t="n">
-        <v>868.5282177496239</v>
+        <v>978.404480582662</v>
       </c>
       <c r="M30" t="n">
-        <v>1485.518798361603</v>
+        <v>1337.7368755048</v>
       </c>
       <c r="N30" t="n">
-        <v>1659.99734651695</v>
+        <v>1512.215423660147</v>
       </c>
       <c r="O30" t="n">
-        <v>2187.315031813138</v>
+        <v>2039.533108956335</v>
       </c>
       <c r="P30" t="n">
         <v>2445.748972877462</v>
@@ -6597,52 +6597,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>490.7999111568627</v>
+        <v>490.7999111568624</v>
       </c>
       <c r="C31" t="n">
-        <v>413.7982515829908</v>
+        <v>413.7982515829905</v>
       </c>
       <c r="D31" t="n">
-        <v>355.61613552469</v>
+        <v>355.6161355246898</v>
       </c>
       <c r="E31" t="n">
-        <v>299.6375652963319</v>
+        <v>299.6375652963317</v>
       </c>
       <c r="F31" t="n">
-        <v>244.6821411524566</v>
+        <v>244.6821411524563</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9302997885905</v>
+        <v>167.9302997885906</v>
       </c>
       <c r="H31" t="n">
-        <v>104.9031775006438</v>
+        <v>104.9031775006439</v>
       </c>
       <c r="I31" t="n">
-        <v>69.93465157859796</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J31" t="n">
         <v>137.0106293959407</v>
       </c>
       <c r="K31" t="n">
-        <v>319.1086914830885</v>
+        <v>319.1086914830886</v>
       </c>
       <c r="L31" t="n">
-        <v>582.4595660889141</v>
+        <v>582.4595660889142</v>
       </c>
       <c r="M31" t="n">
-        <v>865.6171716594306</v>
+        <v>865.6171716594308</v>
       </c>
       <c r="N31" t="n">
         <v>1149.619034811413</v>
       </c>
       <c r="O31" t="n">
-        <v>1402.802877545182</v>
+        <v>1402.802877545183</v>
       </c>
       <c r="P31" t="n">
-        <v>1608.929321817165</v>
+        <v>1608.929321817166</v>
       </c>
       <c r="Q31" t="n">
-        <v>1695.926483912367</v>
+        <v>1695.926483912368</v>
       </c>
       <c r="R31" t="n">
         <v>1653.807550513945</v>
@@ -6660,13 +6660,13 @@
         <v>1042.90958264947</v>
       </c>
       <c r="W31" t="n">
-        <v>845.4269359665448</v>
+        <v>845.4269359665445</v>
       </c>
       <c r="X31" t="n">
-        <v>709.3719084225625</v>
+        <v>709.3719084225622</v>
       </c>
       <c r="Y31" t="n">
-        <v>580.5138526330674</v>
+        <v>580.5138526330671</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1792.950818160679</v>
+        <v>1792.950818160681</v>
       </c>
       <c r="C32" t="n">
-        <v>1518.962199628747</v>
+        <v>1518.962199628749</v>
       </c>
       <c r="D32" t="n">
-        <v>1255.670399430477</v>
+        <v>1255.670399430478</v>
       </c>
       <c r="E32" t="n">
-        <v>964.8560452407123</v>
+        <v>964.8560452407132</v>
       </c>
       <c r="F32" t="n">
-        <v>648.8440388595845</v>
+        <v>648.8440388595852</v>
       </c>
       <c r="G32" t="n">
-        <v>326.5528799444973</v>
+        <v>326.5528799444979</v>
       </c>
       <c r="H32" t="n">
-        <v>101.4881397966935</v>
+        <v>101.4881397966938</v>
       </c>
       <c r="I32" t="n">
-        <v>69.93465157859796</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J32" t="n">
-        <v>243.8279252593007</v>
+        <v>243.8279252593011</v>
       </c>
       <c r="K32" t="n">
-        <v>625.1936695733932</v>
+        <v>625.1936695733934</v>
       </c>
       <c r="L32" t="n">
         <v>1150.588225603151</v>
@@ -6715,37 +6715,37 @@
         <v>2348.102865308522</v>
       </c>
       <c r="O32" t="n">
-        <v>2865.989524423013</v>
+        <v>2865.989524423014</v>
       </c>
       <c r="P32" t="n">
         <v>3270.319423338377</v>
       </c>
       <c r="Q32" t="n">
-        <v>3496.7325789299</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="R32" t="n">
-        <v>3496.732578929898</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="S32" t="n">
-        <v>3431.451773011833</v>
+        <v>3431.451773011835</v>
       </c>
       <c r="T32" t="n">
-        <v>3310.849785924148</v>
+        <v>3310.849785924151</v>
       </c>
       <c r="U32" t="n">
-        <v>3152.117799032979</v>
+        <v>3152.117799032982</v>
       </c>
       <c r="V32" t="n">
-        <v>2916.028810097888</v>
+        <v>2916.028810097891</v>
       </c>
       <c r="W32" t="n">
-        <v>2658.234053236253</v>
+        <v>2658.234053236256</v>
       </c>
       <c r="X32" t="n">
-        <v>2379.742193383653</v>
+        <v>2379.742193383656</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.576759816321</v>
+        <v>2084.576759816323</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>664.2455027065973</v>
       </c>
       <c r="E33" t="n">
-        <v>505.0080477011418</v>
+        <v>505.0080477011419</v>
       </c>
       <c r="F33" t="n">
         <v>358.4734897280268</v>
@@ -6773,22 +6773,22 @@
         <v>220.937241300597</v>
       </c>
       <c r="H33" t="n">
-        <v>119.1052045322123</v>
+        <v>119.1052045322124</v>
       </c>
       <c r="I33" t="n">
-        <v>69.93465157859796</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J33" t="n">
         <v>179.810914411636</v>
       </c>
       <c r="K33" t="n">
-        <v>494.2277915417637</v>
+        <v>494.2277915417638</v>
       </c>
       <c r="L33" t="n">
-        <v>978.4044805826619</v>
+        <v>978.404480582662</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.7368755048</v>
+        <v>1134.347048082142</v>
       </c>
       <c r="N33" t="n">
         <v>1512.215423660147</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>469.5242857757493</v>
+        <v>469.5242857757506</v>
       </c>
       <c r="C34" t="n">
-        <v>395.5620012563221</v>
+        <v>395.5620012563232</v>
       </c>
       <c r="D34" t="n">
-        <v>340.4192602524661</v>
+        <v>340.4192602524671</v>
       </c>
       <c r="E34" t="n">
-        <v>287.4800650785528</v>
+        <v>287.4800650785536</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5640159891222</v>
+        <v>235.5640159891228</v>
       </c>
       <c r="G34" t="n">
-        <v>161.851549679701</v>
+        <v>161.8515496797013</v>
       </c>
       <c r="H34" t="n">
-        <v>101.8638024461991</v>
+        <v>101.8638024461993</v>
       </c>
       <c r="I34" t="n">
-        <v>69.93465157859796</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J34" t="n">
-        <v>139.989520886802</v>
+        <v>139.9895208868019</v>
       </c>
       <c r="K34" t="n">
-        <v>325.0664744648113</v>
+        <v>325.066474464811</v>
       </c>
       <c r="L34" t="n">
-        <v>591.3962405614982</v>
+        <v>591.3962405614977</v>
       </c>
       <c r="M34" t="n">
-        <v>877.5327376228761</v>
+        <v>877.5327376228754</v>
       </c>
       <c r="N34" t="n">
-        <v>1164.51349226572</v>
+        <v>1164.513492265719</v>
       </c>
       <c r="O34" t="n">
-        <v>1420.67622649035</v>
+        <v>1348.215093692346</v>
       </c>
       <c r="P34" t="n">
-        <v>1557.320429455188</v>
+        <v>1557.320429455191</v>
       </c>
       <c r="Q34" t="n">
-        <v>1647.296483041251</v>
+        <v>1647.296483041254</v>
       </c>
       <c r="R34" t="n">
-        <v>1608.216924697273</v>
+        <v>1608.216924697276</v>
       </c>
       <c r="S34" t="n">
-        <v>1494.364726627557</v>
+        <v>1494.364726627559</v>
       </c>
       <c r="T34" t="n">
-        <v>1363.369662300732</v>
+        <v>1363.369662300734</v>
       </c>
       <c r="U34" t="n">
-        <v>1169.187046847985</v>
+        <v>1169.187046847987</v>
       </c>
       <c r="V34" t="n">
-        <v>1009.476457050578</v>
+        <v>1009.47645705058</v>
       </c>
       <c r="W34" t="n">
-        <v>815.0331854220972</v>
+        <v>815.0331854220989</v>
       </c>
       <c r="X34" t="n">
-        <v>682.0175329325596</v>
+        <v>682.0175329325612</v>
       </c>
       <c r="Y34" t="n">
-        <v>556.1988521975093</v>
+        <v>556.1988521975106</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1792.950818160681</v>
+        <v>1792.95081816068</v>
       </c>
       <c r="C35" t="n">
-        <v>1518.962199628749</v>
+        <v>1518.962199628748</v>
       </c>
       <c r="D35" t="n">
-        <v>1255.670399430478</v>
+        <v>1255.670399430477</v>
       </c>
       <c r="E35" t="n">
-        <v>964.8560452407135</v>
+        <v>964.8560452407128</v>
       </c>
       <c r="F35" t="n">
-        <v>648.8440388595857</v>
+        <v>648.8440388595852</v>
       </c>
       <c r="G35" t="n">
-        <v>326.5528799444984</v>
+        <v>326.5528799444978</v>
       </c>
       <c r="H35" t="n">
-        <v>101.4881397966936</v>
+        <v>101.4881397966938</v>
       </c>
       <c r="I35" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J35" t="n">
-        <v>243.8279252593007</v>
+        <v>243.8279252593011</v>
       </c>
       <c r="K35" t="n">
-        <v>625.1936695733932</v>
+        <v>625.1936695733934</v>
       </c>
       <c r="L35" t="n">
         <v>1150.588225603151</v>
@@ -6949,28 +6949,28 @@
         <v>1751.797447352347</v>
       </c>
       <c r="N35" t="n">
-        <v>2348.102865308521</v>
+        <v>2348.102865308522</v>
       </c>
       <c r="O35" t="n">
-        <v>2865.989524423012</v>
+        <v>2865.989524423014</v>
       </c>
       <c r="P35" t="n">
-        <v>3270.319423338376</v>
+        <v>3270.319423338377</v>
       </c>
       <c r="Q35" t="n">
-        <v>3496.732578929899</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="R35" t="n">
-        <v>3496.732578929899</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="S35" t="n">
-        <v>3431.451773011834</v>
+        <v>3431.451773011835</v>
       </c>
       <c r="T35" t="n">
-        <v>3310.849785924149</v>
+        <v>3310.84978592415</v>
       </c>
       <c r="U35" t="n">
-        <v>3152.11779903298</v>
+        <v>3152.117799032981</v>
       </c>
       <c r="V35" t="n">
         <v>2916.028810097889</v>
@@ -6979,10 +6979,10 @@
         <v>2658.234053236255</v>
       </c>
       <c r="X35" t="n">
-        <v>2379.742193383655</v>
+        <v>2379.742193383654</v>
       </c>
       <c r="Y35" t="n">
-        <v>2084.576759816323</v>
+        <v>2084.576759816322</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>220.937241300597</v>
       </c>
       <c r="H36" t="n">
-        <v>119.1052045322123</v>
+        <v>119.1052045322124</v>
       </c>
       <c r="I36" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J36" t="n">
-        <v>69.93465157859799</v>
+        <v>179.810914411636</v>
       </c>
       <c r="K36" t="n">
-        <v>384.3515287087258</v>
+        <v>494.2277915417638</v>
       </c>
       <c r="L36" t="n">
-        <v>868.528217749624</v>
+        <v>951.399181330203</v>
       </c>
       <c r="M36" t="n">
-        <v>1485.518798361603</v>
+        <v>1568.389761942182</v>
       </c>
       <c r="N36" t="n">
-        <v>1659.99734651695</v>
+        <v>2217.417260697647</v>
       </c>
       <c r="O36" t="n">
-        <v>2187.315031813138</v>
+        <v>2354.811249909873</v>
       </c>
       <c r="P36" t="n">
-        <v>2593.530895734265</v>
+        <v>2445.748972877462</v>
       </c>
       <c r="Q36" t="n">
         <v>2664.59575085658</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>469.5242857757493</v>
+        <v>469.5242857757506</v>
       </c>
       <c r="C37" t="n">
-        <v>395.5620012563222</v>
+        <v>395.5620012563232</v>
       </c>
       <c r="D37" t="n">
-        <v>340.4192602524662</v>
+        <v>340.4192602524671</v>
       </c>
       <c r="E37" t="n">
-        <v>287.4800650785529</v>
+        <v>287.4800650785536</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5640159891223</v>
+        <v>235.5640159891228</v>
       </c>
       <c r="G37" t="n">
-        <v>161.851549679701</v>
+        <v>161.8515496797013</v>
       </c>
       <c r="H37" t="n">
-        <v>101.8638024461991</v>
+        <v>101.8638024461993</v>
       </c>
       <c r="I37" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J37" t="n">
-        <v>139.9895208868021</v>
+        <v>139.9895208868019</v>
       </c>
       <c r="K37" t="n">
-        <v>325.0664744648113</v>
+        <v>325.066474464811</v>
       </c>
       <c r="L37" t="n">
-        <v>591.3962405614983</v>
+        <v>591.3962405614977</v>
       </c>
       <c r="M37" t="n">
-        <v>877.5327376228763</v>
+        <v>877.5327376228754</v>
       </c>
       <c r="N37" t="n">
-        <v>1092.052359467713</v>
+        <v>1092.052359467716</v>
       </c>
       <c r="O37" t="n">
-        <v>1348.215093692344</v>
+        <v>1348.215093692346</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.320429455188</v>
+        <v>1557.320429455191</v>
       </c>
       <c r="Q37" t="n">
-        <v>1647.296483041251</v>
+        <v>1647.296483041254</v>
       </c>
       <c r="R37" t="n">
-        <v>1608.216924697273</v>
+        <v>1608.216924697276</v>
       </c>
       <c r="S37" t="n">
-        <v>1494.364726627557</v>
+        <v>1494.364726627559</v>
       </c>
       <c r="T37" t="n">
-        <v>1363.369662300732</v>
+        <v>1363.369662300734</v>
       </c>
       <c r="U37" t="n">
-        <v>1169.187046847985</v>
+        <v>1169.187046847987</v>
       </c>
       <c r="V37" t="n">
-        <v>1009.476457050578</v>
+        <v>1009.47645705058</v>
       </c>
       <c r="W37" t="n">
-        <v>815.0331854220972</v>
+        <v>815.0331854220989</v>
       </c>
       <c r="X37" t="n">
-        <v>682.0175329325596</v>
+        <v>682.0175329325612</v>
       </c>
       <c r="Y37" t="n">
-        <v>556.1988521975093</v>
+        <v>556.1988521975106</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1792.95081816068</v>
+        <v>1792.950818160681</v>
       </c>
       <c r="C38" t="n">
         <v>1518.962199628749</v>
@@ -7159,25 +7159,25 @@
         <v>1255.670399430478</v>
       </c>
       <c r="E38" t="n">
-        <v>964.8560452407132</v>
+        <v>964.8560452407131</v>
       </c>
       <c r="F38" t="n">
-        <v>648.8440388595855</v>
+        <v>648.8440388595852</v>
       </c>
       <c r="G38" t="n">
-        <v>326.5528799444979</v>
+        <v>326.5528799444978</v>
       </c>
       <c r="H38" t="n">
-        <v>101.4881397966938</v>
+        <v>101.4881397966937</v>
       </c>
       <c r="I38" t="n">
         <v>69.93465157859802</v>
       </c>
       <c r="J38" t="n">
-        <v>243.8279252593011</v>
+        <v>243.8279252593008</v>
       </c>
       <c r="K38" t="n">
-        <v>625.1936695733934</v>
+        <v>625.1936695733933</v>
       </c>
       <c r="L38" t="n">
         <v>1150.588225603151</v>
@@ -7189,7 +7189,7 @@
         <v>2348.102865308522</v>
       </c>
       <c r="O38" t="n">
-        <v>2865.989524423014</v>
+        <v>2865.989524423013</v>
       </c>
       <c r="P38" t="n">
         <v>3270.319423338377</v>
@@ -7207,7 +7207,7 @@
         <v>3310.84978592415</v>
       </c>
       <c r="U38" t="n">
-        <v>3152.117799032982</v>
+        <v>3152.117799032981</v>
       </c>
       <c r="V38" t="n">
         <v>2916.02881009789</v>
@@ -7256,19 +7256,19 @@
         <v>179.810914411636</v>
       </c>
       <c r="K39" t="n">
-        <v>494.2277915417638</v>
+        <v>232.4072068993111</v>
       </c>
       <c r="L39" t="n">
-        <v>978.404480582662</v>
+        <v>349.4519540897846</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.7368755048</v>
+        <v>966.442534701764</v>
       </c>
       <c r="N39" t="n">
-        <v>1512.215423660147</v>
+        <v>1615.470033457228</v>
       </c>
       <c r="O39" t="n">
-        <v>2039.533108956335</v>
+        <v>2142.787718753417</v>
       </c>
       <c r="P39" t="n">
         <v>2445.748972877462</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>469.5242857757511</v>
+        <v>469.5242857757504</v>
       </c>
       <c r="C40" t="n">
-        <v>395.5620012563237</v>
+        <v>395.5620012563231</v>
       </c>
       <c r="D40" t="n">
-        <v>340.4192602524675</v>
+        <v>340.419260252467</v>
       </c>
       <c r="E40" t="n">
-        <v>287.4800650785539</v>
+        <v>287.4800650785535</v>
       </c>
       <c r="F40" t="n">
-        <v>235.564015989123</v>
+        <v>235.5640159891227</v>
       </c>
       <c r="G40" t="n">
-        <v>161.8515496797015</v>
+        <v>161.8515496797013</v>
       </c>
       <c r="H40" t="n">
-        <v>101.8638024461994</v>
+        <v>101.8638024461993</v>
       </c>
       <c r="I40" t="n">
         <v>69.93465157859802</v>
       </c>
       <c r="J40" t="n">
-        <v>139.9895208868019</v>
+        <v>139.989520886802</v>
       </c>
       <c r="K40" t="n">
-        <v>325.0664744648109</v>
+        <v>325.066474464811</v>
       </c>
       <c r="L40" t="n">
-        <v>518.9351077634969</v>
+        <v>591.3962405614977</v>
       </c>
       <c r="M40" t="n">
-        <v>805.0716048248746</v>
+        <v>877.5327376228755</v>
       </c>
       <c r="N40" t="n">
-        <v>1092.052359467718</v>
+        <v>1092.052359467716</v>
       </c>
       <c r="O40" t="n">
-        <v>1348.215093692349</v>
+        <v>1348.215093692346</v>
       </c>
       <c r="P40" t="n">
-        <v>1557.320429455193</v>
+        <v>1557.320429455191</v>
       </c>
       <c r="Q40" t="n">
-        <v>1647.296483041256</v>
+        <v>1647.296483041254</v>
       </c>
       <c r="R40" t="n">
-        <v>1608.216924697278</v>
+        <v>1608.216924697276</v>
       </c>
       <c r="S40" t="n">
-        <v>1494.364726627561</v>
+        <v>1494.364726627559</v>
       </c>
       <c r="T40" t="n">
-        <v>1363.369662300735</v>
+        <v>1363.369662300734</v>
       </c>
       <c r="U40" t="n">
-        <v>1169.187046847988</v>
+        <v>1169.187046847987</v>
       </c>
       <c r="V40" t="n">
-        <v>1009.476457050581</v>
+        <v>1009.47645705058</v>
       </c>
       <c r="W40" t="n">
-        <v>815.0331854220998</v>
+        <v>815.0331854220988</v>
       </c>
       <c r="X40" t="n">
-        <v>682.0175329325619</v>
+        <v>682.017532932561</v>
       </c>
       <c r="Y40" t="n">
-        <v>556.1988521975113</v>
+        <v>556.1988521975105</v>
       </c>
     </row>
     <row r="41">
@@ -7399,43 +7399,43 @@
         <v>931.4229196418237</v>
       </c>
       <c r="F41" t="n">
-        <v>612.3715382062512</v>
+        <v>612.3715382062511</v>
       </c>
       <c r="G41" t="n">
-        <v>287.0410042367193</v>
+        <v>298.0387667808467</v>
       </c>
       <c r="H41" t="n">
-        <v>104.5275148511383</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="I41" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="J41" t="n">
-        <v>243.8279252593008</v>
+        <v>243.8279252593011</v>
       </c>
       <c r="K41" t="n">
-        <v>625.1936695733933</v>
+        <v>625.1936695733943</v>
       </c>
       <c r="L41" t="n">
-        <v>1150.588225603151</v>
+        <v>1150.588225603152</v>
       </c>
       <c r="M41" t="n">
-        <v>1751.797447352347</v>
+        <v>1751.797447352348</v>
       </c>
       <c r="N41" t="n">
-        <v>2348.102865308522</v>
+        <v>2348.102865308523</v>
       </c>
       <c r="O41" t="n">
-        <v>2865.989524423014</v>
+        <v>2865.989524423015</v>
       </c>
       <c r="P41" t="n">
         <v>3270.319423338377</v>
       </c>
       <c r="Q41" t="n">
-        <v>3496.732578929901</v>
+        <v>3496.732578929902</v>
       </c>
       <c r="R41" t="n">
-        <v>3496.732578929901</v>
+        <v>3496.732578929902</v>
       </c>
       <c r="S41" t="n">
         <v>3428.412397957391</v>
@@ -7444,7 +7444,7 @@
         <v>3304.771035815261</v>
       </c>
       <c r="U41" t="n">
-        <v>3142.999673869647</v>
+        <v>3142.999673869648</v>
       </c>
       <c r="V41" t="n">
         <v>2903.871309880112</v>
@@ -7487,19 +7487,19 @@
         <v>119.1052045322124</v>
       </c>
       <c r="I42" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="J42" t="n">
-        <v>179.810914411636</v>
+        <v>179.8109144116361</v>
       </c>
       <c r="K42" t="n">
-        <v>494.2277915417638</v>
+        <v>494.227791541764</v>
       </c>
       <c r="L42" t="n">
-        <v>978.404480582662</v>
+        <v>978.4044805826622</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.7368755048</v>
+        <v>1134.347048082142</v>
       </c>
       <c r="N42" t="n">
         <v>1512.215423660147</v>
@@ -7557,7 +7557,7 @@
         <v>299.6375652963318</v>
       </c>
       <c r="F43" t="n">
-        <v>244.6821411524565</v>
+        <v>244.6821411524564</v>
       </c>
       <c r="G43" t="n">
         <v>167.9302997885905</v>
@@ -7566,19 +7566,19 @@
         <v>104.9031775006439</v>
       </c>
       <c r="I43" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="J43" t="n">
-        <v>137.0106293959409</v>
+        <v>137.0106293959408</v>
       </c>
       <c r="K43" t="n">
-        <v>319.1086914830888</v>
+        <v>319.1086914830887</v>
       </c>
       <c r="L43" t="n">
-        <v>582.4595660889145</v>
+        <v>582.4595660889144</v>
       </c>
       <c r="M43" t="n">
-        <v>865.6171716594313</v>
+        <v>865.6171716594311</v>
       </c>
       <c r="N43" t="n">
         <v>1149.619034811413</v>
@@ -7608,10 +7608,10 @@
         <v>1042.90958264947</v>
       </c>
       <c r="W43" t="n">
-        <v>845.4269359665445</v>
+        <v>845.4269359665448</v>
       </c>
       <c r="X43" t="n">
-        <v>709.3719084225622</v>
+        <v>709.3719084225623</v>
       </c>
       <c r="Y43" t="n">
         <v>580.5138526330672</v>
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1779.633580269252</v>
+        <v>1768.635817725125</v>
       </c>
       <c r="C44" t="n">
-        <v>1502.605586682876</v>
+        <v>1491.607824138748</v>
       </c>
       <c r="D44" t="n">
-        <v>1236.27441143016</v>
+        <v>1225.276648886033</v>
       </c>
       <c r="E44" t="n">
-        <v>942.4206821859511</v>
+        <v>931.4229196418237</v>
       </c>
       <c r="F44" t="n">
-        <v>623.3693007503787</v>
+        <v>612.3715382062511</v>
       </c>
       <c r="G44" t="n">
-        <v>298.0387667808467</v>
+        <v>287.0410042367191</v>
       </c>
       <c r="H44" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="I44" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="J44" t="n">
-        <v>243.8279252593011</v>
+        <v>243.8279252593009</v>
       </c>
       <c r="K44" t="n">
-        <v>625.1936695733937</v>
+        <v>625.1936695733934</v>
       </c>
       <c r="L44" t="n">
         <v>1150.588225603151</v>
       </c>
       <c r="M44" t="n">
-        <v>1751.797447352347</v>
+        <v>1751.797447352348</v>
       </c>
       <c r="N44" t="n">
-        <v>2348.102865308522</v>
+        <v>2348.102865308523</v>
       </c>
       <c r="O44" t="n">
         <v>2865.989524423014</v>
@@ -7669,31 +7669,31 @@
         <v>3270.319423338377</v>
       </c>
       <c r="Q44" t="n">
-        <v>3496.732578929901</v>
+        <v>3496.732578929902</v>
       </c>
       <c r="R44" t="n">
-        <v>3496.732578929901</v>
+        <v>3496.732578929902</v>
       </c>
       <c r="S44" t="n">
-        <v>3439.410160501518</v>
+        <v>3428.412397957391</v>
       </c>
       <c r="T44" t="n">
-        <v>3315.768798359389</v>
+        <v>3304.771035815261</v>
       </c>
       <c r="U44" t="n">
-        <v>3153.997436413775</v>
+        <v>3142.999673869648</v>
       </c>
       <c r="V44" t="n">
-        <v>2914.86907242424</v>
+        <v>2903.871309880112</v>
       </c>
       <c r="W44" t="n">
-        <v>2654.034940508161</v>
+        <v>2643.037177964033</v>
       </c>
       <c r="X44" t="n">
-        <v>2372.503705601116</v>
+        <v>2361.505943056988</v>
       </c>
       <c r="Y44" t="n">
-        <v>2074.298896979339</v>
+        <v>2063.301134435212</v>
       </c>
     </row>
     <row r="45">
@@ -7724,19 +7724,19 @@
         <v>119.1052045322124</v>
       </c>
       <c r="I45" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="J45" t="n">
-        <v>179.810914411636</v>
+        <v>179.8109144116361</v>
       </c>
       <c r="K45" t="n">
-        <v>494.2277915417638</v>
+        <v>494.227791541764</v>
       </c>
       <c r="L45" t="n">
-        <v>978.404480582662</v>
+        <v>978.4044805826622</v>
       </c>
       <c r="M45" t="n">
-        <v>1595.395061194641</v>
+        <v>1595.395061194642</v>
       </c>
       <c r="N45" t="n">
         <v>1769.873609349988</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>490.7999111568633</v>
+        <v>490.7999111568631</v>
       </c>
       <c r="C46" t="n">
-        <v>413.7982515829914</v>
+        <v>413.7982515829912</v>
       </c>
       <c r="D46" t="n">
-        <v>355.6161355246908</v>
+        <v>355.6161355246905</v>
       </c>
       <c r="E46" t="n">
-        <v>299.6375652963327</v>
+        <v>299.6375652963324</v>
       </c>
       <c r="F46" t="n">
-        <v>244.6821411524574</v>
+        <v>244.6821411524565</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9302997885914</v>
+        <v>167.9302997885905</v>
       </c>
       <c r="H46" t="n">
-        <v>104.9031775006448</v>
+        <v>104.9031775006439</v>
       </c>
       <c r="I46" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="J46" t="n">
         <v>137.0106293959408</v>
@@ -7851,7 +7851,7 @@
         <v>709.3719084225629</v>
       </c>
       <c r="Y46" t="n">
-        <v>580.5138526330679</v>
+        <v>580.5138526330678</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8060,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8540,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>53.40212541870889</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>119.9642150570733</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9014,10 +9014,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>205.4442701238973</v>
       </c>
       <c r="N15" t="n">
-        <v>205.4442701238974</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9245,19 +9245,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>4.204443386476157</v>
       </c>
       <c r="O18" t="n">
-        <v>25.09949661053307</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9418,7 +9418,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714838</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9482,7 +9482,7 @@
         <v>15.10491126663305</v>
       </c>
       <c r="K21" t="n">
-        <v>164.3882494924852</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9497,7 +9497,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>164.3882494924849</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9716,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>15.10491126663305</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>221.5656757511327</v>
+        <v>205.4442701238977</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9962,7 +9962,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>205.4442701238979</v>
+        <v>205.4442701238978</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>15.10491126663305</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10199,7 +10199,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>205.4442701238978</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>169.1880990876106</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10436,10 +10436,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>205.4442701238979</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>205.4442701238977</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10597,7 +10597,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119831</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>15.10491126663305</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>343.5622652504703</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>60.80261818352272</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10840,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714838</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10904,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>205.4442701238978</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>214.1651829863193</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627463</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11147,10 +11147,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>205.4442701238978</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>205.4442701238974</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>133.6015256506274</v>
+        <v>133.6015256506271</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>45.13471955850218</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>45.13471955850245</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>45.13471955850264</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>45.1347195585027</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>45.13471955850264</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>45.13471955850474</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>10.88778491869039</v>
+        <v>45.13471955850264</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>34.24693463981494</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>10.88778491868629</v>
       </c>
       <c r="H41" t="n">
-        <v>45.13471955850099</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.2469346398149</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>10.88778491868632</v>
       </c>
       <c r="I44" t="n">
-        <v>34.24693463981487</v>
+        <v>34.2469346398149</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>10.88778491868649</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>670490.5096664777</v>
+        <v>670490.5096664778</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>670490.5096664777</v>
+        <v>670490.5096664778</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>670490.5096664776</v>
+        <v>670490.5096664778</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>673185.0524241203</v>
+        <v>673185.0524241204</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>670490.5096664779</v>
+        <v>670490.5096664778</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="D2" t="n">
         <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
-        <v>817449.0461874264</v>
+        <v>817449.0461874265</v>
       </c>
       <c r="F2" t="n">
         <v>817449.0461874265</v>
       </c>
       <c r="G2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="H2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="I2" t="n">
         <v>821041.7698642833</v>
       </c>
       <c r="J2" t="n">
-        <v>817449.0461874262</v>
+        <v>817449.0461874263</v>
       </c>
       <c r="K2" t="n">
-        <v>817449.046187426</v>
+        <v>817449.0461874263</v>
       </c>
       <c r="L2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="M2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.769864283</v>
       </c>
       <c r="N2" t="n">
         <v>821041.7698642834</v>
       </c>
       <c r="O2" t="n">
-        <v>817449.0461874264</v>
+        <v>817449.0461874265</v>
       </c>
       <c r="P2" t="n">
         <v>817449.0461874279</v>
@@ -26380,31 +26380,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2407.185043120114</v>
+        <v>2407.185043120126</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>133464.9000523816</v>
+        <v>133464.9000523817</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4814.370086240377</v>
+        <v>4814.370086240251</v>
       </c>
       <c r="M3" t="n">
-        <v>157788.2115544437</v>
+        <v>157788.2115544436</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>67997.77241015555</v>
+        <v>67997.77241015539</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>150492.492086272</v>
       </c>
       <c r="F4" t="n">
-        <v>150492.492086272</v>
+        <v>150492.4920862721</v>
       </c>
       <c r="G4" t="n">
         <v>152527.9417470941</v>
@@ -26441,19 +26441,19 @@
         <v>152527.9417470942</v>
       </c>
       <c r="J4" t="n">
-        <v>150492.492086272</v>
+        <v>150492.4920862721</v>
       </c>
       <c r="K4" t="n">
-        <v>150492.492086272</v>
+        <v>150492.4920862721</v>
       </c>
       <c r="L4" t="n">
+        <v>152527.9417470941</v>
+      </c>
+      <c r="M4" t="n">
+        <v>152527.9417470941</v>
+      </c>
+      <c r="N4" t="n">
         <v>152527.9417470942</v>
-      </c>
-      <c r="M4" t="n">
-        <v>152527.9417470942</v>
-      </c>
-      <c r="N4" t="n">
-        <v>152527.9417470941</v>
       </c>
       <c r="O4" t="n">
         <v>150492.4920862721</v>
@@ -26478,7 +26478,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>72787.96136398587</v>
+        <v>72787.96136398586</v>
       </c>
       <c r="F5" t="n">
         <v>72787.96136398586</v>
@@ -26493,22 +26493,22 @@
         <v>73040.92341322344</v>
       </c>
       <c r="J5" t="n">
-        <v>72787.96136398581</v>
+        <v>72787.96136398586</v>
       </c>
       <c r="K5" t="n">
-        <v>72787.96136398581</v>
+        <v>72787.96136398586</v>
       </c>
       <c r="L5" t="n">
-        <v>73040.92341322341</v>
+        <v>73040.92341322344</v>
       </c>
       <c r="M5" t="n">
-        <v>73040.92341322343</v>
+        <v>73040.92341322344</v>
       </c>
       <c r="N5" t="n">
         <v>73040.92341322344</v>
       </c>
       <c r="O5" t="n">
-        <v>72787.96136398586</v>
+        <v>72787.96136398587</v>
       </c>
       <c r="P5" t="n">
         <v>72787.96136398587</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>354292.9594353416</v>
+        <v>354292.9594353414</v>
       </c>
       <c r="C6" t="n">
-        <v>435062.3909668889</v>
+        <v>435062.3909668888</v>
       </c>
       <c r="D6" t="n">
         <v>435062.3909668892</v>
       </c>
       <c r="E6" t="n">
-        <v>-109510.5173941791</v>
+        <v>-109429.6811114497</v>
       </c>
       <c r="F6" t="n">
-        <v>594078.7746452474</v>
+        <v>594159.6109279764</v>
       </c>
       <c r="G6" t="n">
         <v>593065.7196608455</v>
       </c>
       <c r="H6" t="n">
+        <v>595472.9047039658</v>
+      </c>
+      <c r="I6" t="n">
         <v>595472.9047039655</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>460694.7108755944</v>
+      </c>
+      <c r="K6" t="n">
+        <v>594159.6109279762</v>
+      </c>
+      <c r="L6" t="n">
+        <v>590658.5346177254</v>
+      </c>
+      <c r="M6" t="n">
+        <v>437684.6931495218</v>
+      </c>
+      <c r="N6" t="n">
         <v>595472.9047039656</v>
       </c>
-      <c r="J6" t="n">
-        <v>460613.8745928653</v>
-      </c>
-      <c r="K6" t="n">
-        <v>594078.7746452468</v>
-      </c>
-      <c r="L6" t="n">
-        <v>590658.5346177255</v>
-      </c>
-      <c r="M6" t="n">
-        <v>437684.6931495221</v>
-      </c>
-      <c r="N6" t="n">
-        <v>595472.904703966</v>
-      </c>
       <c r="O6" t="n">
-        <v>526081.0022350915</v>
+        <v>526161.838517821</v>
       </c>
       <c r="P6" t="n">
-        <v>594078.7746452485</v>
+        <v>594159.6109279778</v>
       </c>
     </row>
   </sheetData>
@@ -26700,34 +26700,34 @@
         <v>91.01517812049461</v>
       </c>
       <c r="G2" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="H2" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="I2" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="J2" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="K2" t="n">
         <v>91.01517812049462</v>
       </c>
       <c r="L2" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="M2" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="N2" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="O2" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="P2" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
     </row>
     <row r="3">
@@ -26752,7 +26752,7 @@
         <v>549.8197777449313</v>
       </c>
       <c r="G3" t="n">
-        <v>549.8197777449312</v>
+        <v>549.8197777449313</v>
       </c>
       <c r="H3" t="n">
         <v>549.8197777449312</v>
@@ -26776,10 +26776,10 @@
         <v>549.8197777449312</v>
       </c>
       <c r="O3" t="n">
-        <v>549.8197777449312</v>
+        <v>549.8197777449313</v>
       </c>
       <c r="P3" t="n">
-        <v>549.8197777449312</v>
+        <v>549.8197777449313</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>874.1831447324754</v>
+        <v>874.1831447324753</v>
       </c>
       <c r="F4" t="n">
         <v>874.1831447324753</v>
@@ -26813,25 +26813,25 @@
         <v>874.1831447324753</v>
       </c>
       <c r="J4" t="n">
-        <v>874.1831447324746</v>
+        <v>874.1831447324753</v>
       </c>
       <c r="K4" t="n">
-        <v>874.1831447324746</v>
+        <v>874.1831447324753</v>
       </c>
       <c r="L4" t="n">
-        <v>874.1831447324746</v>
+        <v>874.1831447324753</v>
       </c>
       <c r="M4" t="n">
-        <v>874.1831447324748</v>
+        <v>874.1831447324753</v>
       </c>
       <c r="N4" t="n">
         <v>874.1831447324753</v>
       </c>
       <c r="O4" t="n">
-        <v>874.1831447324753</v>
+        <v>874.1831447324754</v>
       </c>
       <c r="P4" t="n">
-        <v>874.1831447324753</v>
+        <v>874.1831447324754</v>
       </c>
     </row>
   </sheetData>
@@ -26922,31 +26922,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.008981303900143</v>
+        <v>3.008981303900157</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>88.00619681659448</v>
+        <v>88.0061968165944</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.01796260780047</v>
+        <v>6.017962607800314</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>84.99721551269444</v>
+        <v>84.99721551269424</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776584</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>633.1688558548165</v>
+        <v>633.1688558548161</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,16 +27159,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.008981303900143</v>
+        <v>3.008981303900157</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>88.00619681659448</v>
+        <v>88.0061968165944</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>224.9573404408503</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>142.265735089176</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27460,13 +27460,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>143.9078879708281</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27517,7 +27517,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>117.0649405732773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27581,13 +27581,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>316.4369965874658</v>
+        <v>124.5829601403577</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27660,13 +27660,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>38.05537747357883</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27703,7 +27703,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>78.95612594840517</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27715,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,10 +27745,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27760,10 +27760,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,13 +27858,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>301.251446211517</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>181.0743548999748</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>81.55953011607097</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,22 +27979,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>15.06043824303563</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28529,7 +28529,7 @@
         <v>91.01517812049461</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049475</v>
       </c>
       <c r="R16" t="n">
         <v>91.01517812049461</v>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="C17" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="D17" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="E17" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="F17" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="G17" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="H17" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="I17" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28611,28 +28611,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>11.02442803654651</v>
+        <v>11.02442803654648</v>
       </c>
       <c r="S17" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="T17" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="U17" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="V17" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="W17" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="X17" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="Y17" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="C19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="D19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="E19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="F19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="G19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="H19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="I19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="J19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="K19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="L19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="M19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="N19" t="n">
-        <v>94.02415942439475</v>
+        <v>20.83109599206895</v>
       </c>
       <c r="O19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="P19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.83109599206968</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="R19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="S19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="T19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="U19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="V19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="W19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="X19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="Y19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="C20" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="D20" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="E20" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="F20" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="G20" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="H20" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="I20" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>11.02442803654651</v>
       </c>
       <c r="S20" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="T20" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="U20" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="V20" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="W20" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="X20" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="Y20" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="C22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="D22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="E22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="F22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="G22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="H22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="I22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="J22" t="n">
-        <v>94.02415942439475</v>
+        <v>23.26166517368377</v>
       </c>
       <c r="K22" t="n">
-        <v>94.02415942439475</v>
+        <v>91.59359024278017</v>
       </c>
       <c r="L22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="M22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="N22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="O22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="P22" t="n">
-        <v>20.83109599206955</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="Q22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="R22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="S22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="T22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="U22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="V22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="W22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="X22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="Y22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439477</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="C23" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="D23" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="E23" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="F23" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="G23" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="H23" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="I23" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29085,28 +29085,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>11.02442803654743</v>
+        <v>11.02442803654741</v>
       </c>
       <c r="S23" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="T23" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="U23" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="V23" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="W23" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="X23" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="Y23" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="C25" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="D25" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="E25" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="F25" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="G25" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="H25" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="I25" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="J25" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="K25" t="n">
-        <v>20.83109599206871</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="L25" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="M25" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="N25" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="O25" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="P25" t="n">
-        <v>94.02415942439478</v>
+        <v>20.83109599206793</v>
       </c>
       <c r="Q25" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="R25" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="S25" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="T25" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="U25" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="V25" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="W25" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="X25" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="Y25" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439482</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="C26" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="D26" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="E26" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="F26" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="G26" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="H26" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="I26" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29322,28 +29322,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>11.02442803654467</v>
+        <v>11.02442803654651</v>
       </c>
       <c r="S26" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="T26" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="U26" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="V26" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="W26" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="X26" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="Y26" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="C28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="D28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="E28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="F28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="G28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="H28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="I28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="J28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="K28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="L28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="M28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="N28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="O28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="P28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="Q28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="R28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="S28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="T28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="U28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="V28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="W28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="X28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
     </row>
     <row r="29">
@@ -29559,7 +29559,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>11.02442803654467</v>
+        <v>11.02442803654651</v>
       </c>
       <c r="S29" t="n">
         <v>91.01517812049462</v>
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="C32" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="D32" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="E32" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="F32" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="G32" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="H32" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="I32" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29796,28 +29796,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>11.02442803654471</v>
+        <v>11.02442803654651</v>
       </c>
       <c r="S32" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="T32" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="U32" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="V32" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="W32" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="X32" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="Y32" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="C34" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="D34" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="E34" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="F34" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="G34" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="H34" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="I34" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="J34" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="K34" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="L34" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="M34" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="N34" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="O34" t="n">
-        <v>94.02415942439495</v>
+        <v>20.8310959920687</v>
       </c>
       <c r="P34" t="n">
-        <v>20.83109599206495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="Q34" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="R34" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="S34" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="T34" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="U34" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="V34" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="W34" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="X34" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="Y34" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="C35" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="D35" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="E35" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="F35" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="G35" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="H35" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="I35" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>11.02442803654651</v>
       </c>
       <c r="S35" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="T35" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="U35" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="V35" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="W35" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="X35" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="Y35" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="C37" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="D37" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="E37" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="F37" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="G37" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="H37" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="I37" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="J37" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="K37" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="L37" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="M37" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="N37" t="n">
-        <v>20.83109599206472</v>
+        <v>20.83109599206864</v>
       </c>
       <c r="O37" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="P37" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="Q37" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="R37" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="S37" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="T37" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="U37" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="V37" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="W37" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="X37" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="Y37" t="n">
-        <v>94.02415942439495</v>
+        <v>94.02415942439478</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="C38" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="D38" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="E38" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="F38" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="G38" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="H38" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="I38" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>11.02442803654651</v>
       </c>
       <c r="S38" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="T38" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="U38" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="V38" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="W38" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="X38" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="Y38" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="C40" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="D40" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="E40" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="F40" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="G40" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="H40" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="I40" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="J40" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="K40" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="L40" t="n">
-        <v>20.83109599207086</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="M40" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="N40" t="n">
-        <v>94.02415942439471</v>
+        <v>20.83109599206853</v>
       </c>
       <c r="O40" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="P40" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="Q40" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="R40" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="S40" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="T40" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="U40" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="V40" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="W40" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="X40" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="Y40" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439481</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="C41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="D41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="E41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="F41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="G41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="H41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="I41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30507,28 +30507,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>11.02442803654651</v>
+        <v>11.02442803654648</v>
       </c>
       <c r="S41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="T41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="U41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="V41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="W41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="X41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="Y41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="C43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="D43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="E43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="F43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="G43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="H43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="I43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="J43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="K43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="L43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="M43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="N43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="O43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="P43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="Q43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="R43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="S43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="T43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="U43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="V43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="W43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="X43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="Y43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="C44" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="D44" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="E44" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="F44" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="G44" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="H44" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="I44" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30744,28 +30744,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>11.02442803654651</v>
+        <v>11.02442803654648</v>
       </c>
       <c r="S44" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="T44" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="U44" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="V44" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="W44" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="X44" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="Y44" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="C46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="D46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="E46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="F46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="G46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="H46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="I46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="J46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="K46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="L46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="M46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="N46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="O46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="P46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="Q46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="R46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="S46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="T46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="U46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="V46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="W46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="X46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="Y46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049465</v>
       </c>
     </row>
   </sheetData>
@@ -32232,43 +32232,43 @@
         <v>22.63654994504633</v>
       </c>
       <c r="I17" t="n">
-        <v>85.21377681009635</v>
+        <v>85.21377681009636</v>
       </c>
       <c r="J17" t="n">
         <v>187.5990607492618</v>
       </c>
       <c r="K17" t="n">
-        <v>281.1623620234042</v>
+        <v>281.1623620234043</v>
       </c>
       <c r="L17" t="n">
-        <v>348.8067721667668</v>
+        <v>348.8067721667669</v>
       </c>
       <c r="M17" t="n">
-        <v>388.1147419053453</v>
+        <v>388.1147419053454</v>
       </c>
       <c r="N17" t="n">
-        <v>394.394844190844</v>
+        <v>394.3948441908441</v>
       </c>
       <c r="O17" t="n">
-        <v>372.4158676483268</v>
+        <v>372.4158676483269</v>
       </c>
       <c r="P17" t="n">
         <v>317.8483268922344</v>
       </c>
       <c r="Q17" t="n">
-        <v>238.6908563777002</v>
+        <v>238.6908563777003</v>
       </c>
       <c r="R17" t="n">
         <v>138.8446899046032</v>
       </c>
       <c r="S17" t="n">
-        <v>50.36791230296532</v>
+        <v>50.36791230296533</v>
       </c>
       <c r="T17" t="n">
-        <v>9.675722922928385</v>
+        <v>9.675722922928387</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1768264611842993</v>
+        <v>0.1768264611842994</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,16 +32311,16 @@
         <v>11.42172783579565</v>
       </c>
       <c r="I18" t="n">
-        <v>40.71778542733689</v>
+        <v>40.71778542733691</v>
       </c>
       <c r="J18" t="n">
-        <v>111.7327154000336</v>
+        <v>111.7327154000337</v>
       </c>
       <c r="K18" t="n">
         <v>190.9690071437277</v>
       </c>
       <c r="L18" t="n">
-        <v>256.7813971439889</v>
+        <v>256.781397143989</v>
       </c>
       <c r="M18" t="n">
         <v>299.6517788709875</v>
@@ -32329,25 +32329,25 @@
         <v>307.5826698160064</v>
       </c>
       <c r="O18" t="n">
-        <v>281.3780517295215</v>
+        <v>281.3780517295216</v>
       </c>
       <c r="P18" t="n">
-        <v>225.8306932401775</v>
+        <v>225.8306932401776</v>
       </c>
       <c r="Q18" t="n">
         <v>150.961837844231</v>
       </c>
       <c r="R18" t="n">
-        <v>73.426875224125</v>
+        <v>73.42687522412501</v>
       </c>
       <c r="S18" t="n">
         <v>21.96685621462059</v>
       </c>
       <c r="T18" t="n">
-        <v>4.766833733467846</v>
+        <v>4.766833733467847</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07780468552994313</v>
+        <v>0.07780468552994314</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9914782877367612</v>
+        <v>0.9914782877367613</v>
       </c>
       <c r="H19" t="n">
-        <v>8.815143321877756</v>
+        <v>8.815143321877757</v>
       </c>
       <c r="I19" t="n">
-        <v>29.81645614393824</v>
+        <v>29.81645614393825</v>
       </c>
       <c r="J19" t="n">
-        <v>70.09751494298901</v>
+        <v>70.09751494298902</v>
       </c>
       <c r="K19" t="n">
         <v>115.1917501570528</v>
       </c>
       <c r="L19" t="n">
-        <v>147.4057810695181</v>
+        <v>147.4057810695182</v>
       </c>
       <c r="M19" t="n">
         <v>155.418728322227</v>
       </c>
       <c r="N19" t="n">
-        <v>151.7232183406628</v>
+        <v>151.7232183406629</v>
       </c>
       <c r="O19" t="n">
-        <v>140.1409492521015</v>
+        <v>140.1409492521016</v>
       </c>
       <c r="P19" t="n">
         <v>119.9147921822715</v>
       </c>
       <c r="Q19" t="n">
-        <v>83.02278643948462</v>
+        <v>83.02278643948463</v>
       </c>
       <c r="R19" t="n">
-        <v>44.58046919223654</v>
+        <v>44.58046919223655</v>
       </c>
       <c r="S19" t="n">
-        <v>17.27876252355791</v>
+        <v>17.27876252355792</v>
       </c>
       <c r="T19" t="n">
         <v>4.236316320329797</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05408063387655067</v>
+        <v>0.05408063387655068</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34128,43 +34128,43 @@
         <v>22.63654994504633</v>
       </c>
       <c r="I41" t="n">
-        <v>85.21377681009635</v>
+        <v>85.21377681009636</v>
       </c>
       <c r="J41" t="n">
         <v>187.5990607492618</v>
       </c>
       <c r="K41" t="n">
-        <v>281.1623620234042</v>
+        <v>281.1623620234043</v>
       </c>
       <c r="L41" t="n">
-        <v>348.8067721667668</v>
+        <v>348.8067721667669</v>
       </c>
       <c r="M41" t="n">
-        <v>388.1147419053453</v>
+        <v>388.1147419053454</v>
       </c>
       <c r="N41" t="n">
-        <v>394.394844190844</v>
+        <v>394.3948441908441</v>
       </c>
       <c r="O41" t="n">
-        <v>372.4158676483268</v>
+        <v>372.4158676483269</v>
       </c>
       <c r="P41" t="n">
         <v>317.8483268922344</v>
       </c>
       <c r="Q41" t="n">
-        <v>238.6908563777002</v>
+        <v>238.6908563777003</v>
       </c>
       <c r="R41" t="n">
         <v>138.8446899046032</v>
       </c>
       <c r="S41" t="n">
-        <v>50.36791230296532</v>
+        <v>50.36791230296533</v>
       </c>
       <c r="T41" t="n">
-        <v>9.675722922928385</v>
+        <v>9.675722922928387</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1768264611842993</v>
+        <v>0.1768264611842994</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,16 +34207,16 @@
         <v>11.42172783579565</v>
       </c>
       <c r="I42" t="n">
-        <v>40.71778542733689</v>
+        <v>40.71778542733691</v>
       </c>
       <c r="J42" t="n">
-        <v>111.7327154000336</v>
+        <v>111.7327154000337</v>
       </c>
       <c r="K42" t="n">
         <v>190.9690071437277</v>
       </c>
       <c r="L42" t="n">
-        <v>256.7813971439889</v>
+        <v>256.781397143989</v>
       </c>
       <c r="M42" t="n">
         <v>299.6517788709875</v>
@@ -34225,25 +34225,25 @@
         <v>307.5826698160064</v>
       </c>
       <c r="O42" t="n">
-        <v>281.3780517295215</v>
+        <v>281.3780517295216</v>
       </c>
       <c r="P42" t="n">
-        <v>225.8306932401775</v>
+        <v>225.8306932401776</v>
       </c>
       <c r="Q42" t="n">
         <v>150.961837844231</v>
       </c>
       <c r="R42" t="n">
-        <v>73.426875224125</v>
+        <v>73.42687522412501</v>
       </c>
       <c r="S42" t="n">
         <v>21.96685621462059</v>
       </c>
       <c r="T42" t="n">
-        <v>4.766833733467846</v>
+        <v>4.766833733467847</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07780468552994313</v>
+        <v>0.07780468552994314</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9914782877367612</v>
+        <v>0.9914782877367613</v>
       </c>
       <c r="H43" t="n">
-        <v>8.815143321877756</v>
+        <v>8.815143321877757</v>
       </c>
       <c r="I43" t="n">
-        <v>29.81645614393824</v>
+        <v>29.81645614393825</v>
       </c>
       <c r="J43" t="n">
-        <v>70.09751494298901</v>
+        <v>70.09751494298902</v>
       </c>
       <c r="K43" t="n">
         <v>115.1917501570528</v>
       </c>
       <c r="L43" t="n">
-        <v>147.4057810695181</v>
+        <v>147.4057810695182</v>
       </c>
       <c r="M43" t="n">
         <v>155.418728322227</v>
       </c>
       <c r="N43" t="n">
-        <v>151.7232183406628</v>
+        <v>151.7232183406629</v>
       </c>
       <c r="O43" t="n">
-        <v>140.1409492521015</v>
+        <v>140.1409492521016</v>
       </c>
       <c r="P43" t="n">
         <v>119.9147921822715</v>
       </c>
       <c r="Q43" t="n">
-        <v>83.02278643948462</v>
+        <v>83.02278643948463</v>
       </c>
       <c r="R43" t="n">
-        <v>44.58046919223654</v>
+        <v>44.58046919223655</v>
       </c>
       <c r="S43" t="n">
-        <v>17.27876252355791</v>
+        <v>17.27876252355792</v>
       </c>
       <c r="T43" t="n">
         <v>4.236316320329797</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05408063387655067</v>
+        <v>0.05408063387655068</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,43 +34365,43 @@
         <v>22.63654994504633</v>
       </c>
       <c r="I44" t="n">
-        <v>85.21377681009635</v>
+        <v>85.21377681009636</v>
       </c>
       <c r="J44" t="n">
         <v>187.5990607492618</v>
       </c>
       <c r="K44" t="n">
-        <v>281.1623620234042</v>
+        <v>281.1623620234043</v>
       </c>
       <c r="L44" t="n">
-        <v>348.8067721667668</v>
+        <v>348.8067721667669</v>
       </c>
       <c r="M44" t="n">
-        <v>388.1147419053453</v>
+        <v>388.1147419053454</v>
       </c>
       <c r="N44" t="n">
-        <v>394.394844190844</v>
+        <v>394.3948441908441</v>
       </c>
       <c r="O44" t="n">
-        <v>372.4158676483268</v>
+        <v>372.4158676483269</v>
       </c>
       <c r="P44" t="n">
         <v>317.8483268922344</v>
       </c>
       <c r="Q44" t="n">
-        <v>238.6908563777002</v>
+        <v>238.6908563777003</v>
       </c>
       <c r="R44" t="n">
         <v>138.8446899046032</v>
       </c>
       <c r="S44" t="n">
-        <v>50.36791230296532</v>
+        <v>50.36791230296533</v>
       </c>
       <c r="T44" t="n">
-        <v>9.675722922928385</v>
+        <v>9.675722922928387</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1768264611842993</v>
+        <v>0.1768264611842994</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,16 +34444,16 @@
         <v>11.42172783579565</v>
       </c>
       <c r="I45" t="n">
-        <v>40.71778542733689</v>
+        <v>40.71778542733691</v>
       </c>
       <c r="J45" t="n">
-        <v>111.7327154000336</v>
+        <v>111.7327154000337</v>
       </c>
       <c r="K45" t="n">
         <v>190.9690071437277</v>
       </c>
       <c r="L45" t="n">
-        <v>256.7813971439889</v>
+        <v>256.781397143989</v>
       </c>
       <c r="M45" t="n">
         <v>299.6517788709875</v>
@@ -34462,25 +34462,25 @@
         <v>307.5826698160064</v>
       </c>
       <c r="O45" t="n">
-        <v>281.3780517295215</v>
+        <v>281.3780517295216</v>
       </c>
       <c r="P45" t="n">
-        <v>225.8306932401775</v>
+        <v>225.8306932401776</v>
       </c>
       <c r="Q45" t="n">
         <v>150.961837844231</v>
       </c>
       <c r="R45" t="n">
-        <v>73.426875224125</v>
+        <v>73.42687522412501</v>
       </c>
       <c r="S45" t="n">
         <v>21.96685621462059</v>
       </c>
       <c r="T45" t="n">
-        <v>4.766833733467846</v>
+        <v>4.766833733467847</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07780468552994313</v>
+        <v>0.07780468552994314</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9914782877367612</v>
+        <v>0.9914782877367613</v>
       </c>
       <c r="H46" t="n">
-        <v>8.815143321877756</v>
+        <v>8.815143321877757</v>
       </c>
       <c r="I46" t="n">
-        <v>29.81645614393824</v>
+        <v>29.81645614393825</v>
       </c>
       <c r="J46" t="n">
-        <v>70.09751494298901</v>
+        <v>70.09751494298902</v>
       </c>
       <c r="K46" t="n">
         <v>115.1917501570528</v>
       </c>
       <c r="L46" t="n">
-        <v>147.4057810695181</v>
+        <v>147.4057810695182</v>
       </c>
       <c r="M46" t="n">
         <v>155.418728322227</v>
       </c>
       <c r="N46" t="n">
-        <v>151.7232183406628</v>
+        <v>151.7232183406629</v>
       </c>
       <c r="O46" t="n">
-        <v>140.1409492521015</v>
+        <v>140.1409492521016</v>
       </c>
       <c r="P46" t="n">
         <v>119.9147921822715</v>
       </c>
       <c r="Q46" t="n">
-        <v>83.02278643948462</v>
+        <v>83.02278643948463</v>
       </c>
       <c r="R46" t="n">
-        <v>44.58046919223654</v>
+        <v>44.58046919223655</v>
       </c>
       <c r="S46" t="n">
-        <v>17.27876252355791</v>
+        <v>17.27876252355792</v>
       </c>
       <c r="T46" t="n">
         <v>4.236316320329797</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05408063387655067</v>
+        <v>0.05408063387655068</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35023,10 +35023,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N6" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35260,13 +35260,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35491,25 +35491,25 @@
         <v>110.9861240737758</v>
       </c>
       <c r="K12" t="n">
-        <v>317.5928051819474</v>
+        <v>106.5296935880776</v>
       </c>
       <c r="L12" t="n">
         <v>489.0673626675739</v>
       </c>
       <c r="M12" t="n">
-        <v>157.5177449489692</v>
+        <v>623.2228086989692</v>
       </c>
       <c r="N12" t="n">
         <v>655.5833320762267</v>
       </c>
       <c r="O12" t="n">
-        <v>258.7460223421504</v>
+        <v>532.6441265618066</v>
       </c>
       <c r="P12" t="n">
-        <v>410.3190544657845</v>
+        <v>91.85628582584732</v>
       </c>
       <c r="Q12" t="n">
-        <v>221.0573514940586</v>
+        <v>10.98006375820947</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35734,10 +35734,10 @@
         <v>489.0673626675739</v>
       </c>
       <c r="M15" t="n">
-        <v>157.5177449489692</v>
+        <v>362.9620150728665</v>
       </c>
       <c r="N15" t="n">
-        <v>381.6852278565705</v>
+        <v>176.2409577326731</v>
       </c>
       <c r="O15" t="n">
         <v>532.6441265618066</v>
@@ -35825,7 +35825,7 @@
         <v>208.2085295676596</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.87592130828486</v>
+        <v>87.875921308285</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>175.6497713946492</v>
+        <v>175.6497713946493</v>
       </c>
       <c r="K17" t="n">
-        <v>385.2179235495884</v>
+        <v>385.2179235495885</v>
       </c>
       <c r="L17" t="n">
-        <v>530.70157174723</v>
+        <v>530.7015717472301</v>
       </c>
       <c r="M17" t="n">
-        <v>607.2820421709051</v>
+        <v>607.2820421709054</v>
       </c>
       <c r="N17" t="n">
-        <v>602.3287050062372</v>
+        <v>602.3287050062373</v>
       </c>
       <c r="O17" t="n">
-        <v>523.1178374893854</v>
+        <v>523.1178374893855</v>
       </c>
       <c r="P17" t="n">
         <v>408.4140393084475</v>
       </c>
       <c r="Q17" t="n">
-        <v>228.7001571631554</v>
+        <v>228.7001571631555</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>110.9861240737758</v>
       </c>
       <c r="K18" t="n">
-        <v>317.5928051819473</v>
+        <v>53.12756816936874</v>
       </c>
       <c r="L18" t="n">
-        <v>118.2270173641147</v>
+        <v>489.0673626675739</v>
       </c>
       <c r="M18" t="n">
-        <v>623.2228086989691</v>
+        <v>623.2228086989692</v>
       </c>
       <c r="N18" t="n">
-        <v>655.5833320762266</v>
+        <v>180.4454011191493</v>
       </c>
       <c r="O18" t="n">
-        <v>163.8813038956102</v>
+        <v>532.6441265618066</v>
       </c>
       <c r="P18" t="n">
         <v>410.3190544657845</v>
       </c>
       <c r="Q18" t="n">
-        <v>221.0573514940585</v>
+        <v>221.0573514940586</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>70.76249425071099</v>
+        <v>70.76249425071101</v>
       </c>
       <c r="K19" t="n">
         <v>186.9464177555647</v>
       </c>
       <c r="L19" t="n">
-        <v>269.019965754229</v>
+        <v>269.0199657542291</v>
       </c>
       <c r="M19" t="n">
-        <v>289.0267647084623</v>
+        <v>289.0267647084624</v>
       </c>
       <c r="N19" t="n">
-        <v>289.8795501442862</v>
+        <v>216.6864867119604</v>
       </c>
       <c r="O19" t="n">
         <v>258.750236590536</v>
       </c>
       <c r="P19" t="n">
-        <v>211.2175108715597</v>
+        <v>211.2175108715598</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.69183917985992</v>
+        <v>90.88490261218502</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36138,7 +36138,7 @@
         <v>523.1178374893854</v>
       </c>
       <c r="P20" t="n">
-        <v>408.4140393084486</v>
+        <v>408.4140393084475</v>
       </c>
       <c r="Q20" t="n">
         <v>228.7001571631554</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>217.5158176618538</v>
+        <v>53.12756816936869</v>
       </c>
       <c r="L21" t="n">
         <v>489.0673626675739</v>
@@ -36217,7 +36217,7 @@
         <v>532.6441265618066</v>
       </c>
       <c r="P21" t="n">
-        <v>91.85628582584729</v>
+        <v>256.2445353183322</v>
       </c>
       <c r="Q21" t="n">
         <v>10.98006375820944</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>70.76249425071099</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>186.9464177555647</v>
+        <v>184.5158485739501</v>
       </c>
       <c r="L22" t="n">
         <v>269.019965754229</v>
@@ -36296,10 +36296,10 @@
         <v>258.750236590536</v>
       </c>
       <c r="P22" t="n">
-        <v>138.0244474392345</v>
+        <v>211.2175108715597</v>
       </c>
       <c r="Q22" t="n">
-        <v>90.88490261218499</v>
+        <v>90.884902612185</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>228.7001571631554</v>
       </c>
       <c r="R23" t="n">
-        <v>9.186815169423518e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>110.9861240737758</v>
       </c>
       <c r="K24" t="n">
         <v>317.5928051819473</v>
       </c>
       <c r="L24" t="n">
-        <v>118.2270173641147</v>
+        <v>489.0673626675739</v>
       </c>
       <c r="M24" t="n">
-        <v>623.2228086989691</v>
+        <v>157.5177449489692</v>
       </c>
       <c r="N24" t="n">
-        <v>397.8066334838058</v>
+        <v>381.6852278565707</v>
       </c>
       <c r="O24" t="n">
         <v>532.6441265618066</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>70.76249425071101</v>
+        <v>70.76249425071106</v>
       </c>
       <c r="K25" t="n">
-        <v>113.7533543232386</v>
+        <v>186.9464177555647</v>
       </c>
       <c r="L25" t="n">
-        <v>269.019965754229</v>
+        <v>269.0199657542291</v>
       </c>
       <c r="M25" t="n">
-        <v>289.0267647084623</v>
+        <v>289.0267647084625</v>
       </c>
       <c r="N25" t="n">
         <v>289.8795501442862</v>
@@ -36533,10 +36533,10 @@
         <v>258.750236590536</v>
       </c>
       <c r="P25" t="n">
-        <v>211.2175108715598</v>
+        <v>138.0244474392329</v>
       </c>
       <c r="Q25" t="n">
-        <v>90.88490261218502</v>
+        <v>90.88490261218506</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36682,7 +36682,7 @@
         <v>489.0673626675739</v>
       </c>
       <c r="M27" t="n">
-        <v>362.9620150728671</v>
+        <v>362.962015072867</v>
       </c>
       <c r="N27" t="n">
         <v>176.2409577326731</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>67.75351294681089</v>
+        <v>67.75351294681084</v>
       </c>
       <c r="K28" t="n">
-        <v>183.9374364516646</v>
+        <v>183.9374364516645</v>
       </c>
       <c r="L28" t="n">
         <v>266.0109844503289</v>
@@ -36767,13 +36767,13 @@
         <v>286.8705688403861</v>
       </c>
       <c r="O28" t="n">
-        <v>255.7412552866359</v>
+        <v>255.7412552866358</v>
       </c>
       <c r="P28" t="n">
         <v>208.2085295676596</v>
       </c>
       <c r="Q28" t="n">
-        <v>87.87592130828489</v>
+        <v>87.87592130828484</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>228.7001571631554</v>
       </c>
       <c r="R29" t="n">
-        <v>-1.837363033884704e-12</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>110.9861240737758</v>
       </c>
       <c r="K30" t="n">
         <v>317.5928051819473</v>
@@ -36919,7 +36919,7 @@
         <v>489.0673626675739</v>
       </c>
       <c r="M30" t="n">
-        <v>623.2228086989691</v>
+        <v>362.962015072867</v>
       </c>
       <c r="N30" t="n">
         <v>176.2409577326731</v>
@@ -36928,7 +36928,7 @@
         <v>532.6441265618066</v>
       </c>
       <c r="P30" t="n">
-        <v>261.0443849134579</v>
+        <v>410.3190544657845</v>
       </c>
       <c r="Q30" t="n">
         <v>221.0573514940585</v>
@@ -37156,10 +37156,10 @@
         <v>489.0673626675739</v>
       </c>
       <c r="M33" t="n">
-        <v>362.9620150728671</v>
+        <v>157.5177449489692</v>
       </c>
       <c r="N33" t="n">
-        <v>176.2409577326731</v>
+        <v>381.6852278565707</v>
       </c>
       <c r="O33" t="n">
         <v>532.6441265618066</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>70.76249425071119</v>
+        <v>70.76249425071101</v>
       </c>
       <c r="K34" t="n">
-        <v>186.9464177555649</v>
+        <v>186.9464177555647</v>
       </c>
       <c r="L34" t="n">
-        <v>269.0199657542292</v>
+        <v>269.019965754229</v>
       </c>
       <c r="M34" t="n">
-        <v>289.0267647084626</v>
+        <v>289.0267647084623</v>
       </c>
       <c r="N34" t="n">
-        <v>289.8795501442864</v>
+        <v>289.8795501442862</v>
       </c>
       <c r="O34" t="n">
-        <v>258.7502365905361</v>
+        <v>185.5571731582099</v>
       </c>
       <c r="P34" t="n">
-        <v>138.0244474392299</v>
+        <v>211.2175108715598</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.88490261218519</v>
+        <v>90.88490261218502</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>607.2820421709051</v>
       </c>
       <c r="N35" t="n">
-        <v>602.3287050062362</v>
+        <v>602.3287050062372</v>
       </c>
       <c r="O35" t="n">
         <v>523.1178374893854</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>110.9861240737758</v>
       </c>
       <c r="K36" t="n">
         <v>317.5928051819473</v>
       </c>
       <c r="L36" t="n">
-        <v>489.0673626675739</v>
+        <v>461.789282614585</v>
       </c>
       <c r="M36" t="n">
         <v>623.2228086989691</v>
       </c>
       <c r="N36" t="n">
-        <v>176.2409577326731</v>
+        <v>655.5833320762266</v>
       </c>
       <c r="O36" t="n">
-        <v>532.6441265618066</v>
+        <v>138.7818072850771</v>
       </c>
       <c r="P36" t="n">
-        <v>410.3190544657845</v>
+        <v>91.85628582584729</v>
       </c>
       <c r="Q36" t="n">
-        <v>71.78268194173216</v>
+        <v>221.0573514940585</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>70.76249425071119</v>
+        <v>70.76249425071101</v>
       </c>
       <c r="K37" t="n">
-        <v>186.9464177555649</v>
+        <v>186.9464177555647</v>
       </c>
       <c r="L37" t="n">
-        <v>269.0199657542292</v>
+        <v>269.019965754229</v>
       </c>
       <c r="M37" t="n">
-        <v>289.0267647084626</v>
+        <v>289.0267647084623</v>
       </c>
       <c r="N37" t="n">
-        <v>216.6864867119561</v>
+        <v>216.6864867119601</v>
       </c>
       <c r="O37" t="n">
-        <v>258.7502365905361</v>
+        <v>258.750236590536</v>
       </c>
       <c r="P37" t="n">
-        <v>211.2175108715599</v>
+        <v>211.2175108715598</v>
       </c>
       <c r="Q37" t="n">
-        <v>90.88490261218519</v>
+        <v>90.88490261218502</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>523.1178374893854</v>
       </c>
       <c r="P38" t="n">
-        <v>408.4140393084475</v>
+        <v>408.4140393084486</v>
       </c>
       <c r="Q38" t="n">
         <v>228.7001571631554</v>
@@ -37624,22 +37624,22 @@
         <v>110.9861240737758</v>
       </c>
       <c r="K39" t="n">
-        <v>317.5928051819473</v>
+        <v>53.12756816936869</v>
       </c>
       <c r="L39" t="n">
-        <v>489.0673626675739</v>
+        <v>118.2270173641147</v>
       </c>
       <c r="M39" t="n">
-        <v>362.962015072867</v>
+        <v>623.2228086989691</v>
       </c>
       <c r="N39" t="n">
-        <v>176.2409577326731</v>
+        <v>655.5833320762266</v>
       </c>
       <c r="O39" t="n">
         <v>532.6441265618066</v>
       </c>
       <c r="P39" t="n">
-        <v>410.3190544657845</v>
+        <v>306.0214688121666</v>
       </c>
       <c r="Q39" t="n">
         <v>221.0573514940585</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>70.76249425071094</v>
+        <v>70.76249425071104</v>
       </c>
       <c r="K40" t="n">
-        <v>186.9464177555646</v>
+        <v>186.9464177555647</v>
       </c>
       <c r="L40" t="n">
-        <v>195.8269023219051</v>
+        <v>269.0199657542291</v>
       </c>
       <c r="M40" t="n">
-        <v>289.0267647084623</v>
+        <v>289.0267647084624</v>
       </c>
       <c r="N40" t="n">
-        <v>289.8795501442861</v>
+        <v>216.68648671196</v>
       </c>
       <c r="O40" t="n">
-        <v>258.7502365905359</v>
+        <v>258.750236590536</v>
       </c>
       <c r="P40" t="n">
-        <v>211.2175108715597</v>
+        <v>211.2175108715598</v>
       </c>
       <c r="Q40" t="n">
-        <v>90.88490261218494</v>
+        <v>90.88490261218504</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>175.6497713946492</v>
+        <v>175.6497713946493</v>
       </c>
       <c r="K41" t="n">
-        <v>385.2179235495884</v>
+        <v>385.2179235495885</v>
       </c>
       <c r="L41" t="n">
-        <v>530.70157174723</v>
+        <v>530.7015717472301</v>
       </c>
       <c r="M41" t="n">
         <v>607.2820421709051</v>
       </c>
       <c r="N41" t="n">
-        <v>602.3287050062372</v>
+        <v>602.3287050062373</v>
       </c>
       <c r="O41" t="n">
-        <v>523.1178374893863</v>
+        <v>523.1178374893855</v>
       </c>
       <c r="P41" t="n">
         <v>408.4140393084475</v>
       </c>
       <c r="Q41" t="n">
-        <v>228.7001571631554</v>
+        <v>228.7001571631555</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>110.9861240737758</v>
       </c>
       <c r="K42" t="n">
-        <v>317.5928051819473</v>
+        <v>317.5928051819474</v>
       </c>
       <c r="L42" t="n">
         <v>489.0673626675739</v>
       </c>
       <c r="M42" t="n">
-        <v>362.962015072867</v>
+        <v>157.5177449489692</v>
       </c>
       <c r="N42" t="n">
-        <v>176.2409577326731</v>
+        <v>381.6852278565705</v>
       </c>
       <c r="O42" t="n">
         <v>532.6441265618066</v>
@@ -37879,7 +37879,7 @@
         <v>410.3190544657845</v>
       </c>
       <c r="Q42" t="n">
-        <v>221.0573514940585</v>
+        <v>221.0573514940586</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37955,7 +37955,7 @@
         <v>255.7412552866359</v>
       </c>
       <c r="P43" t="n">
-        <v>208.2085295676596</v>
+        <v>208.2085295676597</v>
       </c>
       <c r="Q43" t="n">
         <v>87.8759213082849</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>175.6497713946492</v>
+        <v>175.6497713946493</v>
       </c>
       <c r="K44" t="n">
-        <v>385.2179235495884</v>
+        <v>385.2179235495885</v>
       </c>
       <c r="L44" t="n">
-        <v>530.70157174723</v>
+        <v>530.7015717472301</v>
       </c>
       <c r="M44" t="n">
-        <v>607.2820421709051</v>
+        <v>607.2820421709054</v>
       </c>
       <c r="N44" t="n">
-        <v>602.3287050062372</v>
+        <v>602.3287050062373</v>
       </c>
       <c r="O44" t="n">
-        <v>523.1178374893854</v>
+        <v>523.1178374893855</v>
       </c>
       <c r="P44" t="n">
         <v>408.4140393084475</v>
       </c>
       <c r="Q44" t="n">
-        <v>228.7001571631554</v>
+        <v>228.7001571631555</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>110.9861240737758</v>
       </c>
       <c r="K45" t="n">
-        <v>317.5928051819473</v>
+        <v>317.5928051819474</v>
       </c>
       <c r="L45" t="n">
         <v>489.0673626675739</v>
       </c>
       <c r="M45" t="n">
-        <v>623.2228086989691</v>
+        <v>623.2228086989692</v>
       </c>
       <c r="N45" t="n">
         <v>176.2409577326731</v>
       </c>
       <c r="O45" t="n">
-        <v>272.3833329357045</v>
+        <v>272.3833329357043</v>
       </c>
       <c r="P45" t="n">
         <v>410.3190544657845</v>
       </c>
       <c r="Q45" t="n">
-        <v>221.0573514940585</v>
+        <v>221.0573514940586</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>67.75351294681093</v>
+        <v>67.7535129468109</v>
       </c>
       <c r="K46" t="n">
         <v>183.9374364516646</v>
       </c>
       <c r="L46" t="n">
-        <v>266.010984450329</v>
+        <v>266.0109844503289</v>
       </c>
       <c r="M46" t="n">
         <v>286.0177834045622</v>
@@ -38195,7 +38195,7 @@
         <v>208.2085295676597</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.87592130828493</v>
+        <v>87.8759213082849</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
